--- a/Summary_Data/Figure_4BC.xlsx
+++ b/Summary_Data/Figure_4BC.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F197"/>
+  <dimension ref="A1:G197"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -370,20 +370,25 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>Mean</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Sd</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Error</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>p</t>
         </is>
@@ -398,16 +403,21 @@
           <t>Stimulus</t>
         </is>
       </c>
-      <c r="C2">
-        <v>0.0313910877389026</v>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>glaze_osc_full</t>
+        </is>
       </c>
       <c r="D2">
-        <v>0.037106479793896</v>
+        <v>0.006393351450419507</v>
       </c>
       <c r="E2">
-        <v>0.00157842099781741</v>
-      </c>
-      <c r="F2" t="inlineStr">
+        <v>0.04455422631881829</v>
+      </c>
+      <c r="F2">
+        <v>0.001329064240909844</v>
+      </c>
+      <c r="G2" t="inlineStr">
         <is>
           <t>&lt; 0.05</t>
         </is>
@@ -422,16 +432,21 @@
           <t>Stimulus</t>
         </is>
       </c>
-      <c r="C3">
-        <v>-0.00854405601557638</v>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>glaze_osc_full</t>
+        </is>
       </c>
       <c r="D3">
-        <v>0.0408494208899678</v>
+        <v>0.006758616420490349</v>
       </c>
       <c r="E3">
-        <v>0.00173763676963</v>
-      </c>
-      <c r="F3" t="inlineStr">
+        <v>0.04462729891458431</v>
+      </c>
+      <c r="F3">
+        <v>0.001331244015581008</v>
+      </c>
+      <c r="G3" t="inlineStr">
         <is>
           <t>&lt; 0.05</t>
         </is>
@@ -446,16 +461,21 @@
           <t>Stimulus</t>
         </is>
       </c>
-      <c r="C4">
-        <v>0.0070231204931407</v>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>glaze_osc_full</t>
+        </is>
       </c>
       <c r="D4">
-        <v>0.039370596992933</v>
+        <v>0.008253010620621363</v>
       </c>
       <c r="E4">
-        <v>0.00167473113416905</v>
-      </c>
-      <c r="F4" t="inlineStr">
+        <v>0.04402545481821366</v>
+      </c>
+      <c r="F4">
+        <v>0.001313290848548881</v>
+      </c>
+      <c r="G4" t="inlineStr">
         <is>
           <t>&lt; 0.05</t>
         </is>
@@ -470,16 +490,21 @@
           <t>Stimulus</t>
         </is>
       </c>
-      <c r="C5">
-        <v>0.0087360045189427</v>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>glaze_osc_full</t>
+        </is>
       </c>
       <c r="D5">
-        <v>0.0390708973489488</v>
+        <v>0.006811003790188326</v>
       </c>
       <c r="E5">
-        <v>0.00166198262733869</v>
-      </c>
-      <c r="F5" t="inlineStr">
+        <v>0.04469592959523682</v>
+      </c>
+      <c r="F5">
+        <v>0.001333291286760892</v>
+      </c>
+      <c r="G5" t="inlineStr">
         <is>
           <t>&lt; 0.05</t>
         </is>
@@ -494,16 +519,21 @@
           <t>Stimulus</t>
         </is>
       </c>
-      <c r="C6">
-        <v>0.00867071523527114</v>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>glaze_osc_full</t>
+        </is>
       </c>
       <c r="D6">
-        <v>0.0379735852603492</v>
+        <v>0.006880871542517147</v>
       </c>
       <c r="E6">
-        <v>0.00161530559272304</v>
-      </c>
-      <c r="F6" t="inlineStr">
+        <v>0.04458977474599331</v>
+      </c>
+      <c r="F6">
+        <v>0.00133012465980346</v>
+      </c>
+      <c r="G6" t="inlineStr">
         <is>
           <t>&lt; 0.05</t>
         </is>
@@ -518,16 +548,21 @@
           <t>Stimulus</t>
         </is>
       </c>
-      <c r="C7">
-        <v>0.00803078782046707</v>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>glaze_osc_full</t>
+        </is>
       </c>
       <c r="D7">
-        <v>0.0388019737480381</v>
+        <v>0.007989799375574782</v>
       </c>
       <c r="E7">
-        <v>0.00165054325985237</v>
-      </c>
-      <c r="F7" t="inlineStr">
+        <v>0.04423674748696964</v>
+      </c>
+      <c r="F7">
+        <v>0.001319593764200485</v>
+      </c>
+      <c r="G7" t="inlineStr">
         <is>
           <t>&lt; 0.05</t>
         </is>
@@ -542,16 +577,21 @@
           <t>Stimulus</t>
         </is>
       </c>
-      <c r="C8">
-        <v>0.00825788755323705</v>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>glaze_osc_full</t>
+        </is>
       </c>
       <c r="D8">
-        <v>0.0382581712793158</v>
+        <v>0.006516021125940642</v>
       </c>
       <c r="E8">
-        <v>0.00162741120205373</v>
-      </c>
-      <c r="F8" t="inlineStr">
+        <v>0.04300594321108144</v>
+      </c>
+      <c r="F8">
+        <v>0.001282878550273607</v>
+      </c>
+      <c r="G8" t="inlineStr">
         <is>
           <t>&lt; 0.05</t>
         </is>
@@ -566,16 +606,21 @@
           <t>Stimulus</t>
         </is>
       </c>
-      <c r="C9">
-        <v>0.00888112369656723</v>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>glaze_osc_full</t>
+        </is>
       </c>
       <c r="D9">
-        <v>0.0377543334815563</v>
+        <v>0.005302388165244301</v>
       </c>
       <c r="E9">
-        <v>0.0016063575129795</v>
-      </c>
-      <c r="F9" t="inlineStr">
+        <v>0.04341425734237318</v>
+      </c>
+      <c r="F9">
+        <v>0.001295058667757295</v>
+      </c>
+      <c r="G9" t="inlineStr">
         <is>
           <t>&lt; 0.05</t>
         </is>
@@ -590,16 +635,21 @@
           <t>Stimulus</t>
         </is>
       </c>
-      <c r="C10">
-        <v>0.00789095539686367</v>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>glaze_osc_full</t>
+        </is>
       </c>
       <c r="D10">
-        <v>0.0390485909138127</v>
+        <v>0.004132262616053603</v>
       </c>
       <c r="E10">
-        <v>0.00166142510279804</v>
-      </c>
-      <c r="F10" t="inlineStr">
+        <v>0.04324221875223178</v>
+      </c>
+      <c r="F10">
+        <v>0.001289926711552347</v>
+      </c>
+      <c r="G10" t="inlineStr">
         <is>
           <t>&lt; 0.05</t>
         </is>
@@ -614,16 +664,21 @@
           <t>Stimulus</t>
         </is>
       </c>
-      <c r="C11">
-        <v>0.00804082735532689</v>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>glaze_osc_full</t>
+        </is>
       </c>
       <c r="D11">
-        <v>0.0381072982026052</v>
+        <v>0.002884043865013956</v>
       </c>
       <c r="E11">
-        <v>0.00162137532627901</v>
-      </c>
-      <c r="F11" t="inlineStr">
+        <v>0.04327730247179953</v>
+      </c>
+      <c r="F11">
+        <v>0.00129097326809632</v>
+      </c>
+      <c r="G11" t="inlineStr">
         <is>
           <t>&lt; 0.05</t>
         </is>
@@ -638,16 +693,21 @@
           <t>Stimulus</t>
         </is>
       </c>
-      <c r="C12">
-        <v>0.00692396434012729</v>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>glaze_osc_full</t>
+        </is>
       </c>
       <c r="D12">
-        <v>0.0378351964437644</v>
+        <v>0.00212652854637801</v>
       </c>
       <c r="E12">
-        <v>0.00160979804059279</v>
-      </c>
-      <c r="F12" t="inlineStr">
+        <v>0.04376784634773406</v>
+      </c>
+      <c r="F12">
+        <v>0.001305606320400643</v>
+      </c>
+      <c r="G12" t="inlineStr">
         <is>
           <t>&lt; 0.05</t>
         </is>
@@ -662,16 +722,21 @@
           <t>Stimulus</t>
         </is>
       </c>
-      <c r="C13">
-        <v>0.00748745115633093</v>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>glaze_osc_full</t>
+        </is>
       </c>
       <c r="D13">
-        <v>0.0392180688013395</v>
+        <v>0.002227855017002487</v>
       </c>
       <c r="E13">
-        <v>0.00166863598570359</v>
-      </c>
-      <c r="F13" t="inlineStr">
+        <v>0.04358860693489057</v>
+      </c>
+      <c r="F13">
+        <v>0.001300259561768425</v>
+      </c>
+      <c r="G13" t="inlineStr">
         <is>
           <t>&lt; 0.05</t>
         </is>
@@ -686,16 +751,21 @@
           <t>Stimulus</t>
         </is>
       </c>
-      <c r="C14">
-        <v>0.00687444265432766</v>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>glaze_osc_full</t>
+        </is>
       </c>
       <c r="D14">
-        <v>0.037394294394317</v>
+        <v>0.002701762742601678</v>
       </c>
       <c r="E14">
-        <v>0.00159103870214588</v>
-      </c>
-      <c r="F14" t="inlineStr">
+        <v>0.04479740911783037</v>
+      </c>
+      <c r="F14">
+        <v>0.001336318447499777</v>
+      </c>
+      <c r="G14" t="inlineStr">
         <is>
           <t>&lt; 0.05</t>
         </is>
@@ -710,18 +780,23 @@
           <t>Stimulus</t>
         </is>
       </c>
-      <c r="C15">
-        <v>0.00646315631348769</v>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>glaze_osc_full</t>
+        </is>
       </c>
       <c r="D15">
-        <v>0.0377701748371</v>
+        <v>-0.0007496567346475403</v>
       </c>
       <c r="E15">
-        <v>0.00160741031868546</v>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>&lt; 0.05</t>
+        <v>0.04341298293486851</v>
+      </c>
+      <c r="F15">
+        <v>0.001295020651847633</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>&gt; 0.05</t>
         </is>
       </c>
     </row>
@@ -734,18 +809,23 @@
           <t>Stimulus</t>
         </is>
       </c>
-      <c r="C16">
-        <v>0.00584892689722796</v>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>glaze_osc_full</t>
+        </is>
       </c>
       <c r="D16">
-        <v>0.0379409485926453</v>
+        <v>-0.0009309429428325474</v>
       </c>
       <c r="E16">
-        <v>0.00161467805038138</v>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>&lt; 0.05</t>
+        <v>0.04495228131398717</v>
+      </c>
+      <c r="F16">
+        <v>0.001340938325675873</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>&gt; 0.05</t>
         </is>
       </c>
     </row>
@@ -758,16 +838,21 @@
           <t>Stimulus</t>
         </is>
       </c>
-      <c r="C17">
-        <v>0.00733865387325352</v>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>glaze_osc_full</t>
+        </is>
       </c>
       <c r="D17">
-        <v>0.0383173761527353</v>
+        <v>-0.001648232242570205</v>
       </c>
       <c r="E17">
-        <v>0.00163069792709458</v>
-      </c>
-      <c r="F17" t="inlineStr">
+        <v>0.04366771676106747</v>
+      </c>
+      <c r="F17">
+        <v>0.001302619428604041</v>
+      </c>
+      <c r="G17" t="inlineStr">
         <is>
           <t>&lt; 0.05</t>
         </is>
@@ -782,18 +867,23 @@
           <t>Stimulus</t>
         </is>
       </c>
-      <c r="C18">
-        <v>0.00558343029643136</v>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>glaze_osc_full</t>
+        </is>
       </c>
       <c r="D18">
-        <v>0.0376320898562817</v>
+        <v>-0.0004998188514286559</v>
       </c>
       <c r="E18">
-        <v>0.00160153374480196</v>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>&lt; 0.05</t>
+        <v>0.04357179945862078</v>
+      </c>
+      <c r="F18">
+        <v>0.001299758190349016</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>&gt; 0.05</t>
         </is>
       </c>
     </row>
@@ -806,16 +896,21 @@
           <t>Stimulus</t>
         </is>
       </c>
-      <c r="C19">
-        <v>0.00669628208015615</v>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>glaze_osc_full</t>
+        </is>
       </c>
       <c r="D19">
-        <v>0.0382230197210224</v>
+        <v>-0.001345563193101201</v>
       </c>
       <c r="E19">
-        <v>0.00162668233800547</v>
-      </c>
-      <c r="F19" t="inlineStr">
+        <v>0.04380138658642757</v>
+      </c>
+      <c r="F19">
+        <v>0.001306606834505863</v>
+      </c>
+      <c r="G19" t="inlineStr">
         <is>
           <t>&lt; 0.05</t>
         </is>
@@ -830,18 +925,23 @@
           <t>Stimulus</t>
         </is>
       </c>
-      <c r="C20">
-        <v>0.00604016805701256</v>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>glaze_osc_full</t>
+        </is>
       </c>
       <c r="D20">
-        <v>0.0377033662849311</v>
+        <v>-0.0009651950299876017</v>
       </c>
       <c r="E20">
-        <v>0.00160456710293133</v>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>&lt; 0.05</t>
+        <v>0.04350504014785136</v>
+      </c>
+      <c r="F20">
+        <v>0.001297766742622901</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>&gt; 0.05</t>
         </is>
       </c>
     </row>
@@ -854,18 +954,23 @@
           <t>Stimulus</t>
         </is>
       </c>
-      <c r="C21">
-        <v>0.00520444990082</v>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>glaze_osc_full</t>
+        </is>
       </c>
       <c r="D21">
-        <v>0.0384069155554793</v>
+        <v>-0.0001703537370167453</v>
       </c>
       <c r="E21">
-        <v>0.00163450851469499</v>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>&lt; 0.05</t>
+        <v>0.04318038519565555</v>
+      </c>
+      <c r="F21">
+        <v>0.001288082200363989</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>&gt; 0.05</t>
         </is>
       </c>
     </row>
@@ -878,18 +983,23 @@
           <t>Stimulus</t>
         </is>
       </c>
-      <c r="C22">
-        <v>0.00458141523723408</v>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>glaze_osc_full</t>
+        </is>
       </c>
       <c r="D22">
-        <v>0.038610364088869</v>
+        <v>-0.001095224607515416</v>
       </c>
       <c r="E22">
-        <v>0.00164355430218077</v>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>&lt; 0.05</t>
+        <v>0.04346307935604631</v>
+      </c>
+      <c r="F22">
+        <v>0.00129651504121282</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>&gt; 0.05</t>
         </is>
       </c>
     </row>
@@ -902,16 +1012,21 @@
           <t>Stimulus</t>
         </is>
       </c>
-      <c r="C23">
-        <v>0.00576591781983488</v>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>glaze_osc_full</t>
+        </is>
       </c>
       <c r="D23">
-        <v>0.0374960738696719</v>
+        <v>-0.001389568399401744</v>
       </c>
       <c r="E23">
-        <v>0.00159612153310809</v>
-      </c>
-      <c r="F23" t="inlineStr">
+        <v>0.04327709581167662</v>
+      </c>
+      <c r="F23">
+        <v>0.001290967103370725</v>
+      </c>
+      <c r="G23" t="inlineStr">
         <is>
           <t>&lt; 0.05</t>
         </is>
@@ -926,18 +1041,23 @@
           <t>Stimulus</t>
         </is>
       </c>
-      <c r="C24">
-        <v>0.00528871458040561</v>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>glaze_osc_full</t>
+        </is>
       </c>
       <c r="D24">
-        <v>0.0374323406893641</v>
+        <v>-0.0001847936025788489</v>
       </c>
       <c r="E24">
-        <v>0.00159340855836261</v>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>&lt; 0.05</t>
+        <v>0.04252357819397873</v>
+      </c>
+      <c r="F24">
+        <v>0.001268489475470477</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>&gt; 0.05</t>
         </is>
       </c>
     </row>
@@ -950,18 +1070,23 @@
           <t>Stimulus</t>
         </is>
       </c>
-      <c r="C25">
-        <v>0.00603307518677441</v>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>glaze_osc_full</t>
+        </is>
       </c>
       <c r="D25">
-        <v>0.0376800897213417</v>
+        <v>0.0005428714337058697</v>
       </c>
       <c r="E25">
-        <v>0.00160395466423281</v>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>&lt; 0.05</t>
+        <v>0.04273867103436401</v>
+      </c>
+      <c r="F25">
+        <v>0.001274905751237139</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>&gt; 0.05</t>
         </is>
       </c>
     </row>
@@ -974,18 +1099,23 @@
           <t>Stimulus</t>
         </is>
       </c>
-      <c r="C26">
-        <v>0.00438010530273057</v>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>glaze_osc_full</t>
+        </is>
       </c>
       <c r="D26">
-        <v>0.0378241182638612</v>
+        <v>0.001284092273995775</v>
       </c>
       <c r="E26">
-        <v>0.00161008562767438</v>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>&lt; 0.05</t>
+        <v>0.04278141904647576</v>
+      </c>
+      <c r="F26">
+        <v>0.001276180935635161</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>&gt; 0.05</t>
         </is>
       </c>
     </row>
@@ -998,16 +1128,21 @@
           <t>Stimulus</t>
         </is>
       </c>
-      <c r="C27">
-        <v>0.00510451477585188</v>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>glaze_osc_full</t>
+        </is>
       </c>
       <c r="D27">
-        <v>0.0384746956051206</v>
+        <v>0.002101979143291396</v>
       </c>
       <c r="E27">
-        <v>0.00163777920719275</v>
-      </c>
-      <c r="F27" t="inlineStr">
+        <v>0.04234252989061079</v>
+      </c>
+      <c r="F27">
+        <v>0.001263088757160122</v>
+      </c>
+      <c r="G27" t="inlineStr">
         <is>
           <t>&lt; 0.05</t>
         </is>
@@ -1022,18 +1157,23 @@
           <t>Stimulus</t>
         </is>
       </c>
-      <c r="C28">
-        <v>0.00503113068359142</v>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>glaze_osc_full</t>
+        </is>
       </c>
       <c r="D28">
-        <v>0.037304364019726</v>
+        <v>0.0005293369530171074</v>
       </c>
       <c r="E28">
-        <v>0.00158796088619153</v>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>&lt; 0.05</t>
+        <v>0.04342936221067858</v>
+      </c>
+      <c r="F28">
+        <v>0.001295509249935172</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>&gt; 0.05</t>
         </is>
       </c>
     </row>
@@ -1046,16 +1186,21 @@
           <t>Stimulus</t>
         </is>
       </c>
-      <c r="C29">
-        <v>0.00482132679412656</v>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>glaze_osc_full</t>
+        </is>
       </c>
       <c r="D29">
-        <v>0.0378493788352052</v>
+        <v>0.001707226824259653</v>
       </c>
       <c r="E29">
-        <v>0.00161116091203618</v>
-      </c>
-      <c r="F29" t="inlineStr">
+        <v>0.04282899343659797</v>
+      </c>
+      <c r="F29">
+        <v>0.001277600092153379</v>
+      </c>
+      <c r="G29" t="inlineStr">
         <is>
           <t>&lt; 0.05</t>
         </is>
@@ -1070,16 +1215,21 @@
           <t>Stimulus</t>
         </is>
       </c>
-      <c r="C30">
-        <v>0.00314569854233554</v>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>glaze_osc_full</t>
+        </is>
       </c>
       <c r="D30">
-        <v>0.0375275381474022</v>
+        <v>0.001476754607663585</v>
       </c>
       <c r="E30">
-        <v>0.00159746089496724</v>
-      </c>
-      <c r="F30" t="inlineStr">
+        <v>0.04278144699498228</v>
+      </c>
+      <c r="F30">
+        <v>0.001276181769346431</v>
+      </c>
+      <c r="G30" t="inlineStr">
         <is>
           <t>&lt; 0.05</t>
         </is>
@@ -1094,16 +1244,21 @@
           <t>Stimulus</t>
         </is>
       </c>
-      <c r="C31">
-        <v>0.0048433355008831</v>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>glaze_osc_full</t>
+        </is>
       </c>
       <c r="D31">
-        <v>0.036890975066091</v>
+        <v>0.002783031059016753</v>
       </c>
       <c r="E31">
-        <v>0.00157036387022822</v>
-      </c>
-      <c r="F31" t="inlineStr">
+        <v>0.04256766151873202</v>
+      </c>
+      <c r="F31">
+        <v>0.001269804492594346</v>
+      </c>
+      <c r="G31" t="inlineStr">
         <is>
           <t>&lt; 0.05</t>
         </is>
@@ -1118,16 +1273,21 @@
           <t>Stimulus</t>
         </is>
       </c>
-      <c r="C32">
-        <v>0.00432822025567489</v>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>glaze_osc_full</t>
+        </is>
       </c>
       <c r="D32">
-        <v>0.0381540121965923</v>
+        <v>0.003809615380627749</v>
       </c>
       <c r="E32">
-        <v>0.001624128452838</v>
-      </c>
-      <c r="F32" t="inlineStr">
+        <v>0.04279217641947073</v>
+      </c>
+      <c r="F32">
+        <v>0.001276501830889215</v>
+      </c>
+      <c r="G32" t="inlineStr">
         <is>
           <t>&lt; 0.05</t>
         </is>
@@ -1142,16 +1302,21 @@
           <t>Stimulus</t>
         </is>
       </c>
-      <c r="C33">
-        <v>0.00397951457347232</v>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>glaze_osc_full</t>
+        </is>
       </c>
       <c r="D33">
-        <v>0.037650899298419</v>
+        <v>0.001738086567965318</v>
       </c>
       <c r="E33">
-        <v>0.00160271209513746</v>
-      </c>
-      <c r="F33" t="inlineStr">
+        <v>0.0421661194265685</v>
+      </c>
+      <c r="F33">
+        <v>0.001257826386811613</v>
+      </c>
+      <c r="G33" t="inlineStr">
         <is>
           <t>&lt; 0.05</t>
         </is>
@@ -1166,16 +1331,21 @@
           <t>Stimulus</t>
         </is>
       </c>
-      <c r="C34">
-        <v>0.0025344375691298</v>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>glaze_osc_full</t>
+        </is>
       </c>
       <c r="D34">
-        <v>0.0373473886413331</v>
+        <v>0.002536130691791561</v>
       </c>
       <c r="E34">
-        <v>0.00159016742899756</v>
-      </c>
-      <c r="F34" t="inlineStr">
+        <v>0.04336586959652566</v>
+      </c>
+      <c r="F34">
+        <v>0.001293615248624753</v>
+      </c>
+      <c r="G34" t="inlineStr">
         <is>
           <t>&lt; 0.05</t>
         </is>
@@ -1190,16 +1360,21 @@
           <t>Stimulus</t>
         </is>
       </c>
-      <c r="C35">
-        <v>0.00291475712215136</v>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>glaze_osc_full</t>
+        </is>
       </c>
       <c r="D35">
-        <v>0.0376149118317708</v>
+        <v>0.003249029648510862</v>
       </c>
       <c r="E35">
-        <v>0.00160155796202843</v>
-      </c>
-      <c r="F35" t="inlineStr">
+        <v>0.04293927469123108</v>
+      </c>
+      <c r="F35">
+        <v>0.001280889810864388</v>
+      </c>
+      <c r="G35" t="inlineStr">
         <is>
           <t>&lt; 0.05</t>
         </is>
@@ -1214,16 +1389,21 @@
           <t>Stimulus</t>
         </is>
       </c>
-      <c r="C36">
-        <v>0.00434450115885915</v>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>glaze_osc_full</t>
+        </is>
       </c>
       <c r="D36">
-        <v>0.0382518043868728</v>
+        <v>0.002217461587116698</v>
       </c>
       <c r="E36">
-        <v>0.00162867540808658</v>
-      </c>
-      <c r="F36" t="inlineStr">
+        <v>0.04230307605199746</v>
+      </c>
+      <c r="F36">
+        <v>0.001261911838820381</v>
+      </c>
+      <c r="G36" t="inlineStr">
         <is>
           <t>&lt; 0.05</t>
         </is>
@@ -1238,16 +1418,21 @@
           <t>Stimulus</t>
         </is>
       </c>
-      <c r="C37">
-        <v>0.0033923477672576</v>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>glaze_osc_full</t>
+        </is>
       </c>
       <c r="D37">
-        <v>0.0379303122168132</v>
+        <v>0.001933298978766538</v>
       </c>
       <c r="E37">
-        <v>0.00161498699783611</v>
-      </c>
-      <c r="F37" t="inlineStr">
+        <v>0.04212143611866759</v>
+      </c>
+      <c r="F37">
+        <v>0.0012564934720333</v>
+      </c>
+      <c r="G37" t="inlineStr">
         <is>
           <t>&lt; 0.05</t>
         </is>
@@ -1262,16 +1447,21 @@
           <t>Stimulus</t>
         </is>
       </c>
-      <c r="C38">
-        <v>0.0024689849804148</v>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>glaze_osc_full</t>
+        </is>
       </c>
       <c r="D38">
-        <v>0.0375980698182416</v>
+        <v>0.001821679676028181</v>
       </c>
       <c r="E38">
-        <v>0.00160084086714369</v>
-      </c>
-      <c r="F38" t="inlineStr">
+        <v>0.04255809485394273</v>
+      </c>
+      <c r="F38">
+        <v>0.001269519116477943</v>
+      </c>
+      <c r="G38" t="inlineStr">
         <is>
           <t>&lt; 0.05</t>
         </is>
@@ -1286,18 +1476,23 @@
           <t>Stimulus</t>
         </is>
       </c>
-      <c r="C39">
-        <v>0.00391076135765262</v>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>glaze_osc_full</t>
+        </is>
       </c>
       <c r="D39">
-        <v>0.0375821017542284</v>
+        <v>0.0009571957817010351</v>
       </c>
       <c r="E39">
-        <v>0.00160053869130582</v>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>&lt; 0.05</t>
+        <v>0.04184581395451153</v>
+      </c>
+      <c r="F39">
+        <v>0.001248271590684475</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>&gt; 0.05</t>
         </is>
       </c>
     </row>
@@ -1310,16 +1505,21 @@
           <t>Stimulus</t>
         </is>
       </c>
-      <c r="C40">
-        <v>0.00285971266910738</v>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>glaze_osc_full</t>
+        </is>
       </c>
       <c r="D40">
-        <v>0.0364759645988686</v>
+        <v>0.001675132572814617</v>
       </c>
       <c r="E40">
-        <v>0.00155343075342033</v>
-      </c>
-      <c r="F40" t="inlineStr">
+        <v>0.04181970473495533</v>
+      </c>
+      <c r="F40">
+        <v>0.001247492745826483</v>
+      </c>
+      <c r="G40" t="inlineStr">
         <is>
           <t>&lt; 0.05</t>
         </is>
@@ -1334,16 +1534,21 @@
           <t>Stimulus</t>
         </is>
       </c>
-      <c r="C41">
-        <v>0.00353373346596329</v>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>glaze_osc_full</t>
+        </is>
       </c>
       <c r="D41">
-        <v>0.0371328876882402</v>
+        <v>0.001614250657302556</v>
       </c>
       <c r="E41">
-        <v>0.00158140765659162</v>
-      </c>
-      <c r="F41" t="inlineStr">
+        <v>0.04160265366574667</v>
+      </c>
+      <c r="F41">
+        <v>0.001241018055581113</v>
+      </c>
+      <c r="G41" t="inlineStr">
         <is>
           <t>&lt; 0.05</t>
         </is>
@@ -1358,18 +1563,23 @@
           <t>Stimulus</t>
         </is>
       </c>
-      <c r="C42">
-        <v>0.00370652704918419</v>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>glaze_osc_full</t>
+        </is>
       </c>
       <c r="D42">
-        <v>0.0374929446054355</v>
+        <v>-0.0001445675450454839</v>
       </c>
       <c r="E42">
-        <v>0.00159674168529529</v>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>&lt; 0.05</t>
+        <v>0.04163526213716706</v>
+      </c>
+      <c r="F42">
+        <v>0.001241990774824523</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>&gt; 0.05</t>
         </is>
       </c>
     </row>
@@ -1382,18 +1592,23 @@
           <t>Stimulus</t>
         </is>
       </c>
-      <c r="C43">
-        <v>0.00342688550645164</v>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>glaze_osc_full</t>
+        </is>
       </c>
       <c r="D43">
-        <v>0.0369319367609529</v>
+        <v>-0.0004596560062149539</v>
       </c>
       <c r="E43">
-        <v>0.001572849600518</v>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>&lt; 0.05</t>
+        <v>0.0420027773252083</v>
+      </c>
+      <c r="F43">
+        <v>0.001252953849144828</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>&gt; 0.05</t>
         </is>
       </c>
     </row>
@@ -1406,18 +1621,23 @@
           <t>Stimulus</t>
         </is>
       </c>
-      <c r="C44">
-        <v>0.00229421464396724</v>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>glaze_osc_full</t>
+        </is>
       </c>
       <c r="D44">
-        <v>0.0364348711423905</v>
+        <v>-0.001265424755769297</v>
       </c>
       <c r="E44">
-        <v>0.00155204711164844</v>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>&lt; 0.05</t>
+        <v>0.04234875378662313</v>
+      </c>
+      <c r="F44">
+        <v>0.001263274417608358</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>&gt; 0.05</t>
         </is>
       </c>
     </row>
@@ -1430,16 +1650,21 @@
           <t>Stimulus</t>
         </is>
       </c>
-      <c r="C45">
-        <v>0.00382892579558074</v>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>glaze_osc_full</t>
+        </is>
       </c>
       <c r="D45">
-        <v>0.0377544891636501</v>
+        <v>-0.002041802420401063</v>
       </c>
       <c r="E45">
-        <v>0.00160825999985576</v>
-      </c>
-      <c r="F45" t="inlineStr">
+        <v>0.0415152971301772</v>
+      </c>
+      <c r="F45">
+        <v>0.001238412187244306</v>
+      </c>
+      <c r="G45" t="inlineStr">
         <is>
           <t>&lt; 0.05</t>
         </is>
@@ -1454,16 +1679,21 @@
           <t>Stimulus</t>
         </is>
       </c>
-      <c r="C46">
-        <v>0.00346053859738328</v>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>glaze_osc_full</t>
+        </is>
       </c>
       <c r="D46">
-        <v>0.0377755683995412</v>
+        <v>-0.00212131024961175</v>
       </c>
       <c r="E46">
-        <v>0.00160953812083979</v>
-      </c>
-      <c r="F46" t="inlineStr">
+        <v>0.04239737430544364</v>
+      </c>
+      <c r="F46">
+        <v>0.001264724780419652</v>
+      </c>
+      <c r="G46" t="inlineStr">
         <is>
           <t>&lt; 0.05</t>
         </is>
@@ -1478,16 +1708,21 @@
           <t>Stimulus</t>
         </is>
       </c>
-      <c r="C47">
-        <v>0.00191457424648316</v>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>glaze_osc_full</t>
+        </is>
       </c>
       <c r="D47">
-        <v>0.0375436547734629</v>
+        <v>-0.001836054201267157</v>
       </c>
       <c r="E47">
-        <v>0.00160003489006193</v>
-      </c>
-      <c r="F47" t="inlineStr">
+        <v>0.0425788656567983</v>
+      </c>
+      <c r="F47">
+        <v>0.001270138714967496</v>
+      </c>
+      <c r="G47" t="inlineStr">
         <is>
           <t>&lt; 0.05</t>
         </is>
@@ -1502,16 +1737,21 @@
           <t>Stimulus</t>
         </is>
       </c>
-      <c r="C48">
-        <v>0.00263551838951119</v>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>glaze_osc_full</t>
+        </is>
       </c>
       <c r="D48">
-        <v>0.0374316598080645</v>
+        <v>-0.002254757264249976</v>
       </c>
       <c r="E48">
-        <v>0.00159563915464129</v>
-      </c>
-      <c r="F48" t="inlineStr">
+        <v>0.0411772664255988</v>
+      </c>
+      <c r="F48">
+        <v>0.001228328642788391</v>
+      </c>
+      <c r="G48" t="inlineStr">
         <is>
           <t>&lt; 0.05</t>
         </is>
@@ -1526,16 +1766,21 @@
           <t>Stimulus</t>
         </is>
       </c>
-      <c r="C49">
-        <v>0.00249672863501726</v>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>glaze_osc_full</t>
+        </is>
       </c>
       <c r="D49">
-        <v>0.0377147598527796</v>
+        <v>-0.002686057734341917</v>
       </c>
       <c r="E49">
-        <v>0.00160808754856053</v>
-      </c>
-      <c r="F49" t="inlineStr">
+        <v>0.04195692553329888</v>
+      </c>
+      <c r="F49">
+        <v>0.001251586078182487</v>
+      </c>
+      <c r="G49" t="inlineStr">
         <is>
           <t>&lt; 0.05</t>
         </is>
@@ -1550,16 +1795,21 @@
           <t>Stimulus</t>
         </is>
       </c>
-      <c r="C50">
-        <v>0.00480996754177541</v>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>glaze_osc_full</t>
+        </is>
       </c>
       <c r="D50">
-        <v>0.0373923498343275</v>
+        <v>-0.002661562220440714</v>
       </c>
       <c r="E50">
-        <v>0.00159509565707742</v>
-      </c>
-      <c r="F50" t="inlineStr">
+        <v>0.0423457740574604</v>
+      </c>
+      <c r="F50">
+        <v>0.001263185531506971</v>
+      </c>
+      <c r="G50" t="inlineStr">
         <is>
           <t>&lt; 0.05</t>
         </is>
@@ -1574,16 +1824,21 @@
           <t>Stimulus</t>
         </is>
       </c>
-      <c r="C51">
-        <v>0.00337611911583502</v>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>glaze_osc_full</t>
+        </is>
       </c>
       <c r="D51">
-        <v>0.0372715305814637</v>
+        <v>-0.003470943162100271</v>
       </c>
       <c r="E51">
-        <v>0.00158994170803736</v>
-      </c>
-      <c r="F51" t="inlineStr">
+        <v>0.0416130882677043</v>
+      </c>
+      <c r="F51">
+        <v>0.001241329322490581</v>
+      </c>
+      <c r="G51" t="inlineStr">
         <is>
           <t>&lt; 0.05</t>
         </is>
@@ -1598,16 +1853,21 @@
           <t>Stimulus</t>
         </is>
       </c>
-      <c r="C52">
-        <v>0.00339304712309418</v>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>glaze_osc_full</t>
+        </is>
       </c>
       <c r="D52">
-        <v>0.0363201840073857</v>
+        <v>-0.003068307353757222</v>
       </c>
       <c r="E52">
-        <v>0.00154935884027401</v>
-      </c>
-      <c r="F52" t="inlineStr">
+        <v>0.04184856502732397</v>
+      </c>
+      <c r="F52">
+        <v>0.001248353655907042</v>
+      </c>
+      <c r="G52" t="inlineStr">
         <is>
           <t>&lt; 0.05</t>
         </is>
@@ -1622,16 +1882,21 @@
           <t>Stimulus</t>
         </is>
       </c>
-      <c r="C53">
-        <v>0.00200077368604854</v>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>glaze_osc_full</t>
+        </is>
       </c>
       <c r="D53">
-        <v>0.036494739561735</v>
+        <v>-0.002552911157651454</v>
       </c>
       <c r="E53">
-        <v>0.00155680509085454</v>
-      </c>
-      <c r="F53" t="inlineStr">
+        <v>0.04217294603471471</v>
+      </c>
+      <c r="F53">
+        <v>0.001258030026320667</v>
+      </c>
+      <c r="G53" t="inlineStr">
         <is>
           <t>&lt; 0.05</t>
         </is>
@@ -1646,16 +1911,21 @@
           <t>Stimulus</t>
         </is>
       </c>
-      <c r="C54">
-        <v>0.00202066702881546</v>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>glaze_osc_full</t>
+        </is>
       </c>
       <c r="D54">
-        <v>0.0373975138640381</v>
+        <v>-0.003763670154154288</v>
       </c>
       <c r="E54">
-        <v>0.00159531594602425</v>
-      </c>
-      <c r="F54" t="inlineStr">
+        <v>0.04140747394571161</v>
+      </c>
+      <c r="F54">
+        <v>0.001235195793410222</v>
+      </c>
+      <c r="G54" t="inlineStr">
         <is>
           <t>&lt; 0.05</t>
         </is>
@@ -1670,16 +1940,21 @@
           <t>Stimulus</t>
         </is>
       </c>
-      <c r="C55">
-        <v>0.00311449326858373</v>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>glaze_osc_full</t>
+        </is>
       </c>
       <c r="D55">
-        <v>0.0370713530863483</v>
+        <v>-0.002829442260002675</v>
       </c>
       <c r="E55">
-        <v>0.00158215212546699</v>
-      </c>
-      <c r="F55" t="inlineStr">
+        <v>0.04124226650689509</v>
+      </c>
+      <c r="F55">
+        <v>0.001230267612238538</v>
+      </c>
+      <c r="G55" t="inlineStr">
         <is>
           <t>&lt; 0.05</t>
         </is>
@@ -1694,16 +1969,21 @@
           <t>Stimulus</t>
         </is>
       </c>
-      <c r="C56">
-        <v>0.00272873846817689</v>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>glaze_osc_full</t>
+        </is>
       </c>
       <c r="D56">
-        <v>0.036907336960659</v>
+        <v>-0.003642692915864785</v>
       </c>
       <c r="E56">
-        <v>0.00157515215270457</v>
-      </c>
-      <c r="F56" t="inlineStr">
+        <v>0.04176826803851393</v>
+      </c>
+      <c r="F56">
+        <v>0.001245958375699133</v>
+      </c>
+      <c r="G56" t="inlineStr">
         <is>
           <t>&lt; 0.05</t>
         </is>
@@ -1718,16 +1998,21 @@
           <t>Stimulus</t>
         </is>
       </c>
-      <c r="C57">
-        <v>0.00260829869770279</v>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>glaze_osc_full</t>
+        </is>
       </c>
       <c r="D57">
-        <v>0.0365826434099537</v>
+        <v>-0.002290774363110525</v>
       </c>
       <c r="E57">
-        <v>0.00156166498028924</v>
-      </c>
-      <c r="F57" t="inlineStr">
+        <v>0.04238400500435228</v>
+      </c>
+      <c r="F57">
+        <v>0.001264325970666357</v>
+      </c>
+      <c r="G57" t="inlineStr">
         <is>
           <t>&lt; 0.05</t>
         </is>
@@ -1742,16 +2027,21 @@
           <t>Stimulus</t>
         </is>
       </c>
-      <c r="C58">
-        <v>0.00215105621420027</v>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>glaze_osc_full</t>
+        </is>
       </c>
       <c r="D58">
-        <v>0.03693760289742</v>
+        <v>-0.002649643632520872</v>
       </c>
       <c r="E58">
-        <v>0.0015775662831124</v>
-      </c>
-      <c r="F58" t="inlineStr">
+        <v>0.04137932896567292</v>
+      </c>
+      <c r="F58">
+        <v>0.001234356221283822</v>
+      </c>
+      <c r="G58" t="inlineStr">
         <is>
           <t>&lt; 0.05</t>
         </is>
@@ -1766,16 +2056,21 @@
           <t>Stimulus</t>
         </is>
       </c>
-      <c r="C59">
-        <v>0.00270388073865088</v>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>glaze_osc_full</t>
+        </is>
       </c>
       <c r="D59">
-        <v>0.0361805085717604</v>
+        <v>-0.002219439080417464</v>
       </c>
       <c r="E59">
-        <v>0.0015455985732306</v>
-      </c>
-      <c r="F59" t="inlineStr">
+        <v>0.04148113837886833</v>
+      </c>
+      <c r="F59">
+        <v>0.001237393222745767</v>
+      </c>
+      <c r="G59" t="inlineStr">
         <is>
           <t>&lt; 0.05</t>
         </is>
@@ -1790,16 +2085,21 @@
           <t>Stimulus</t>
         </is>
       </c>
-      <c r="C60">
-        <v>0.0033907042164134</v>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>glaze_osc_full</t>
+        </is>
       </c>
       <c r="D60">
-        <v>0.0360533904809851</v>
+        <v>-0.001901253444215012</v>
       </c>
       <c r="E60">
-        <v>0.00154053416954292</v>
-      </c>
-      <c r="F60" t="inlineStr">
+        <v>0.04161657048794241</v>
+      </c>
+      <c r="F60">
+        <v>0.001241433198032361</v>
+      </c>
+      <c r="G60" t="inlineStr">
         <is>
           <t>&lt; 0.05</t>
         </is>
@@ -1814,18 +2114,23 @@
           <t>Stimulus</t>
         </is>
       </c>
-      <c r="C61">
-        <v>0.00229616912068459</v>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>glaze_osc_full</t>
+        </is>
       </c>
       <c r="D61">
-        <v>0.0364412769699539</v>
+        <v>-0.000548495578454372</v>
       </c>
       <c r="E61">
-        <v>0.00155784886502329</v>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>&lt; 0.05</t>
+        <v>0.04163399060195543</v>
+      </c>
+      <c r="F61">
+        <v>0.001241952844596115</v>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>&gt; 0.05</t>
         </is>
       </c>
     </row>
@@ -1838,18 +2143,23 @@
           <t>Stimulus</t>
         </is>
       </c>
-      <c r="C62">
-        <v>0.0024027358425759</v>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>glaze_osc_full</t>
+        </is>
       </c>
       <c r="D62">
-        <v>0.0360619920928717</v>
+        <v>-0.001039354711089415</v>
       </c>
       <c r="E62">
-        <v>0.00154200143770691</v>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>&lt; 0.05</t>
+        <v>0.04124122598297558</v>
+      </c>
+      <c r="F62">
+        <v>0.001230236573137481</v>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>&gt; 0.05</t>
         </is>
       </c>
     </row>
@@ -1862,16 +2172,21 @@
           <t>Stimulus</t>
         </is>
       </c>
-      <c r="C63">
-        <v>0.00368994384933238</v>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>glaze_osc_full</t>
+        </is>
       </c>
       <c r="D63">
-        <v>0.0360528483476176</v>
+        <v>-0.001887109239509539</v>
       </c>
       <c r="E63">
-        <v>0.00154197745995106</v>
-      </c>
-      <c r="F63" t="inlineStr">
+        <v>0.04101518190289889</v>
+      </c>
+      <c r="F63">
+        <v>0.001223493619022432</v>
+      </c>
+      <c r="G63" t="inlineStr">
         <is>
           <t>&lt; 0.05</t>
         </is>
@@ -1886,18 +2201,23 @@
           <t>Stimulus</t>
         </is>
       </c>
-      <c r="C64">
-        <v>0.00165558999242524</v>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>glaze_osc_full</t>
+        </is>
       </c>
       <c r="D64">
-        <v>0.0359634720443142</v>
+        <v>-0.0005910712761222595</v>
       </c>
       <c r="E64">
-        <v>0.00153815484255843</v>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>&lt; 0.05</t>
+        <v>0.04127825808000859</v>
+      </c>
+      <c r="F64">
+        <v>0.001231341250291569</v>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>&gt; 0.05</t>
         </is>
       </c>
     </row>
@@ -1910,18 +2230,23 @@
           <t>Stimulus</t>
         </is>
       </c>
-      <c r="C65">
-        <v>0.00308423640569937</v>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>glaze_osc_full</t>
+        </is>
       </c>
       <c r="D65">
-        <v>0.0365399625115569</v>
+        <v>-0.0006078492080590097</v>
       </c>
       <c r="E65">
-        <v>0.00156281129404858</v>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>&lt; 0.05</t>
+        <v>0.04097052957244191</v>
+      </c>
+      <c r="F65">
+        <v>0.001222161628309385</v>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>&gt; 0.05</t>
         </is>
       </c>
     </row>
@@ -1934,18 +2259,23 @@
           <t>Stimulus</t>
         </is>
       </c>
-      <c r="C66">
-        <v>0.00217789640063728</v>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>glaze_osc_full</t>
+        </is>
       </c>
       <c r="D66">
-        <v>0.035641015106895</v>
+        <v>-0.0006577367050975093</v>
       </c>
       <c r="E66">
-        <v>0.00152472645829683</v>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>&lt; 0.05</t>
+        <v>0.04096049179703896</v>
+      </c>
+      <c r="F66">
+        <v>0.001221862198839981</v>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>&gt; 0.05</t>
         </is>
       </c>
     </row>
@@ -1958,16 +2288,21 @@
           <t>Stimulus</t>
         </is>
       </c>
-      <c r="C67">
-        <v>0.00262848853856627</v>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>glaze_osc_full</t>
+        </is>
       </c>
       <c r="D67">
-        <v>0.0357476232676058</v>
+        <v>-0.00156383149170301</v>
       </c>
       <c r="E67">
-        <v>0.00153001626687604</v>
-      </c>
-      <c r="F67" t="inlineStr">
+        <v>0.04173552137389892</v>
+      </c>
+      <c r="F67">
+        <v>0.001244981534116531</v>
+      </c>
+      <c r="G67" t="inlineStr">
         <is>
           <t>&lt; 0.05</t>
         </is>
@@ -1982,16 +2317,21 @@
           <t>Stimulus</t>
         </is>
       </c>
-      <c r="C68">
-        <v>0.00273318636037515</v>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>glaze_osc_full</t>
+        </is>
       </c>
       <c r="D68">
-        <v>0.035828257682682</v>
+        <v>-0.00163395063575811</v>
       </c>
       <c r="E68">
-        <v>0.00153346746042289</v>
-      </c>
-      <c r="F68" t="inlineStr">
+        <v>0.04176483589004377</v>
+      </c>
+      <c r="F68">
+        <v>0.001245855993811307</v>
+      </c>
+      <c r="G68" t="inlineStr">
         <is>
           <t>&lt; 0.05</t>
         </is>
@@ -2006,16 +2346,21 @@
           <t>Stimulus</t>
         </is>
       </c>
-      <c r="C69">
-        <v>0.0027103018142451</v>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>glaze_osc_full</t>
+        </is>
       </c>
       <c r="D69">
-        <v>0.0355531243033498</v>
+        <v>-0.001942387777121955</v>
       </c>
       <c r="E69">
-        <v>0.00152241778449497</v>
-      </c>
-      <c r="F69" t="inlineStr">
+        <v>0.0415066247501847</v>
+      </c>
+      <c r="F69">
+        <v>0.001238153487877625</v>
+      </c>
+      <c r="G69" t="inlineStr">
         <is>
           <t>&lt; 0.05</t>
         </is>
@@ -2030,18 +2375,23 @@
           <t>Stimulus</t>
         </is>
       </c>
-      <c r="C70">
-        <v>0.00224540075780742</v>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>glaze_osc_full</t>
+        </is>
       </c>
       <c r="D70">
-        <v>0.0347088711461008</v>
+        <v>-0.0004657700494806561</v>
       </c>
       <c r="E70">
-        <v>0.00148662092511153</v>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>&lt; 0.05</t>
+        <v>0.04166652439299171</v>
+      </c>
+      <c r="F70">
+        <v>0.001242923336104106</v>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>&gt; 0.05</t>
         </is>
       </c>
     </row>
@@ -2054,18 +2404,23 @@
           <t>Stimulus</t>
         </is>
       </c>
-      <c r="C71">
-        <v>0.00395708312262797</v>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>glaze_osc_full</t>
+        </is>
       </c>
       <c r="D71">
-        <v>0.0364001782835435</v>
+        <v>-0.0009360629947305394</v>
       </c>
       <c r="E71">
-        <v>0.00155943395981782</v>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>&lt; 0.05</t>
+        <v>0.04179951915041027</v>
+      </c>
+      <c r="F71">
+        <v>0.001246890604552416</v>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>&gt; 0.05</t>
         </is>
       </c>
     </row>
@@ -2078,18 +2433,23 @@
           <t>Stimulus</t>
         </is>
       </c>
-      <c r="C72">
-        <v>0.00289141169478374</v>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>glaze_osc_full</t>
+        </is>
       </c>
       <c r="D72">
-        <v>0.0357259608681278</v>
+        <v>-0.0009164707962694071</v>
       </c>
       <c r="E72">
-        <v>0.00153054955365613</v>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>&lt; 0.05</t>
+        <v>0.04139443060953488</v>
+      </c>
+      <c r="F72">
+        <v>0.001234806707275707</v>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>&gt; 0.05</t>
         </is>
       </c>
     </row>
@@ -2102,16 +2462,21 @@
           <t>Stimulus</t>
         </is>
       </c>
-      <c r="C73">
-        <v>0.00318673534094021</v>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>glaze_osc_full</t>
+        </is>
       </c>
       <c r="D73">
-        <v>0.0359920473094439</v>
+        <v>-0.001368596577317094</v>
       </c>
       <c r="E73">
-        <v>0.00154231755529946</v>
-      </c>
-      <c r="F73" t="inlineStr">
+        <v>0.04118123891904122</v>
+      </c>
+      <c r="F73">
+        <v>0.001228447143308269</v>
+      </c>
+      <c r="G73" t="inlineStr">
         <is>
           <t>&lt; 0.05</t>
         </is>
@@ -2126,16 +2491,21 @@
           <t>Stimulus</t>
         </is>
       </c>
-      <c r="C74">
-        <v>0.00206633310923992</v>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>glaze_osc_full</t>
+        </is>
       </c>
       <c r="D74">
-        <v>0.0358211195392333</v>
+        <v>-0.00244965224911895</v>
       </c>
       <c r="E74">
-        <v>0.00153536002706009</v>
-      </c>
-      <c r="F74" t="inlineStr">
+        <v>0.0413894126860152</v>
+      </c>
+      <c r="F74">
+        <v>0.001234657021302801</v>
+      </c>
+      <c r="G74" t="inlineStr">
         <is>
           <t>&lt; 0.05</t>
         </is>
@@ -2150,16 +2520,21 @@
           <t>Stimulus</t>
         </is>
       </c>
-      <c r="C75">
-        <v>0.0026378985075638</v>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>glaze_osc_full</t>
+        </is>
       </c>
       <c r="D75">
-        <v>0.0364300409194274</v>
+        <v>-0.002240336712988364</v>
       </c>
       <c r="E75">
-        <v>0.0015614595336863</v>
-      </c>
-      <c r="F75" t="inlineStr">
+        <v>0.0408431021914628</v>
+      </c>
+      <c r="F75">
+        <v>0.001218360436158493</v>
+      </c>
+      <c r="G75" t="inlineStr">
         <is>
           <t>&lt; 0.05</t>
         </is>
@@ -2174,16 +2549,21 @@
           <t>Stimulus</t>
         </is>
       </c>
-      <c r="C76">
-        <v>0.00227807416905486</v>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>glaze_osc_full</t>
+        </is>
       </c>
       <c r="D76">
-        <v>0.0355249267069975</v>
+        <v>-0.003878331112463526</v>
       </c>
       <c r="E76">
-        <v>0.00152266464956307</v>
-      </c>
-      <c r="F76" t="inlineStr">
+        <v>0.04120911674579176</v>
+      </c>
+      <c r="F76">
+        <v>0.001229278746182109</v>
+      </c>
+      <c r="G76" t="inlineStr">
         <is>
           <t>&lt; 0.05</t>
         </is>
@@ -2198,16 +2578,21 @@
           <t>Stimulus</t>
         </is>
       </c>
-      <c r="C77">
-        <v>0.0019169894572481</v>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>glaze_osc_full</t>
+        </is>
       </c>
       <c r="D77">
-        <v>0.0361947006111526</v>
+        <v>-0.002263768954966424</v>
       </c>
       <c r="E77">
-        <v>0.00155137240891943</v>
-      </c>
-      <c r="F77" t="inlineStr">
+        <v>0.04131746552449405</v>
+      </c>
+      <c r="F77">
+        <v>0.001232510818629939</v>
+      </c>
+      <c r="G77" t="inlineStr">
         <is>
           <t>&lt; 0.05</t>
         </is>
@@ -2222,16 +2607,21 @@
           <t>Stimulus</t>
         </is>
       </c>
-      <c r="C78">
-        <v>0.00279763563773061</v>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>glaze_osc_full</t>
+        </is>
       </c>
       <c r="D78">
-        <v>0.0352624378813518</v>
+        <v>-0.002696146549644918</v>
       </c>
       <c r="E78">
-        <v>0.00151177542771039</v>
-      </c>
-      <c r="F78" t="inlineStr">
+        <v>0.04088303678147499</v>
+      </c>
+      <c r="F78">
+        <v>0.001219551695438383</v>
+      </c>
+      <c r="G78" t="inlineStr">
         <is>
           <t>&lt; 0.05</t>
         </is>
@@ -2246,16 +2636,21 @@
           <t>Stimulus</t>
         </is>
       </c>
-      <c r="C79">
-        <v>0.00296359518964849</v>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>glaze_osc_full</t>
+        </is>
       </c>
       <c r="D79">
-        <v>0.036059060401619</v>
+        <v>-0.003974862518742489</v>
       </c>
       <c r="E79">
-        <v>0.00154592832307607</v>
-      </c>
-      <c r="F79" t="inlineStr">
+        <v>0.04090736848150255</v>
+      </c>
+      <c r="F79">
+        <v>0.00122027751642326</v>
+      </c>
+      <c r="G79" t="inlineStr">
         <is>
           <t>&lt; 0.05</t>
         </is>
@@ -2270,16 +2665,21 @@
           <t>Stimulus</t>
         </is>
       </c>
-      <c r="C80">
-        <v>0.00228786501742912</v>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>glaze_osc_full</t>
+        </is>
       </c>
       <c r="D80">
-        <v>0.0359984044077323</v>
+        <v>-0.004192117318514565</v>
       </c>
       <c r="E80">
-        <v>0.00154332787209733</v>
-      </c>
-      <c r="F80" t="inlineStr">
+        <v>0.04127230946411267</v>
+      </c>
+      <c r="F80">
+        <v>0.001231163801521308</v>
+      </c>
+      <c r="G80" t="inlineStr">
         <is>
           <t>&lt; 0.05</t>
         </is>
@@ -2294,16 +2694,21 @@
           <t>Stimulus</t>
         </is>
       </c>
-      <c r="C81">
-        <v>0.00287352508755569</v>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>glaze_osc_full</t>
+        </is>
       </c>
       <c r="D81">
-        <v>0.035695428158186</v>
+        <v>-0.004724398697452481</v>
       </c>
       <c r="E81">
-        <v>0.00153033863831874</v>
-      </c>
-      <c r="F81" t="inlineStr">
+        <v>0.04115488520317553</v>
+      </c>
+      <c r="F81">
+        <v>0.001227661005061326</v>
+      </c>
+      <c r="G81" t="inlineStr">
         <is>
           <t>&lt; 0.05</t>
         </is>
@@ -2318,16 +2723,21 @@
           <t>Stimulus</t>
         </is>
       </c>
-      <c r="C82">
-        <v>0.0026682464465186</v>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>glaze_osc_full</t>
+        </is>
       </c>
       <c r="D82">
-        <v>0.0355148801823492</v>
+        <v>-0.003889300200079613</v>
       </c>
       <c r="E82">
-        <v>0.00152296255274164</v>
-      </c>
-      <c r="F82" t="inlineStr">
+        <v>0.04015883742592696</v>
+      </c>
+      <c r="F82">
+        <v>0.001197948638977221</v>
+      </c>
+      <c r="G82" t="inlineStr">
         <is>
           <t>&lt; 0.05</t>
         </is>
@@ -2342,16 +2752,21 @@
           <t>Stimulus</t>
         </is>
       </c>
-      <c r="C83">
-        <v>0.00215199174190109</v>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>glaze_osc_full</t>
+        </is>
       </c>
       <c r="D83">
-        <v>0.0360963320399038</v>
+        <v>-0.004838059080959693</v>
       </c>
       <c r="E83">
-        <v>0.00154826721220063</v>
-      </c>
-      <c r="F83" t="inlineStr">
+        <v>0.04023698507031441</v>
+      </c>
+      <c r="F83">
+        <v>0.001200279803678039</v>
+      </c>
+      <c r="G83" t="inlineStr">
         <is>
           <t>&lt; 0.05</t>
         </is>
@@ -2366,16 +2781,21 @@
           <t>Stimulus</t>
         </is>
       </c>
-      <c r="C84">
-        <v>0.00401843575565698</v>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>glaze_osc_full</t>
+        </is>
       </c>
       <c r="D84">
-        <v>0.0356735706942588</v>
+        <v>-0.004047882223547689</v>
       </c>
       <c r="E84">
-        <v>0.00153013385922381</v>
-      </c>
-      <c r="F84" t="inlineStr">
+        <v>0.04141874227390947</v>
+      </c>
+      <c r="F84">
+        <v>0.001235531930591809</v>
+      </c>
+      <c r="G84" t="inlineStr">
         <is>
           <t>&lt; 0.05</t>
         </is>
@@ -2390,16 +2810,21 @@
           <t>Stimulus</t>
         </is>
       </c>
-      <c r="C85">
-        <v>0.00285507144150398</v>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>glaze_osc_full</t>
+        </is>
       </c>
       <c r="D85">
-        <v>0.0349905220121131</v>
+        <v>-0.004217893677716272</v>
       </c>
       <c r="E85">
-        <v>0.0015011956182802</v>
-      </c>
-      <c r="F85" t="inlineStr">
+        <v>0.04161708013286115</v>
+      </c>
+      <c r="F85">
+        <v>0.001241448400873775</v>
+      </c>
+      <c r="G85" t="inlineStr">
         <is>
           <t>&lt; 0.05</t>
         </is>
@@ -2414,16 +2839,21 @@
           <t>Stimulus</t>
         </is>
       </c>
-      <c r="C86">
-        <v>0.00196522169199488</v>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>glaze_osc_full</t>
+        </is>
       </c>
       <c r="D86">
-        <v>0.0358773889757119</v>
+        <v>-0.003895187556830636</v>
       </c>
       <c r="E86">
-        <v>0.00153961370427346</v>
-      </c>
-      <c r="F86" t="inlineStr">
+        <v>0.04039437885540488</v>
+      </c>
+      <c r="F86">
+        <v>0.001204974901512492</v>
+      </c>
+      <c r="G86" t="inlineStr">
         <is>
           <t>&lt; 0.05</t>
         </is>
@@ -2438,16 +2868,21 @@
           <t>Stimulus</t>
         </is>
       </c>
-      <c r="C87">
-        <v>0.00177784337740881</v>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>glaze_osc_full</t>
+        </is>
       </c>
       <c r="D87">
-        <v>0.0347939051487874</v>
+        <v>-0.003751044179722331</v>
       </c>
       <c r="E87">
-        <v>0.00149347596094819</v>
-      </c>
-      <c r="F87" t="inlineStr">
+        <v>0.04080568515612013</v>
+      </c>
+      <c r="F87">
+        <v>0.001217244276193803</v>
+      </c>
+      <c r="G87" t="inlineStr">
         <is>
           <t>&lt; 0.05</t>
         </is>
@@ -2462,18 +2897,23 @@
           <t>Stimulus</t>
         </is>
       </c>
-      <c r="C88">
-        <v>0.00140036137658554</v>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>glaze_osc_full</t>
+        </is>
       </c>
       <c r="D88">
-        <v>0.0355262367054485</v>
+        <v>-0.002754083136373496</v>
       </c>
       <c r="E88">
-        <v>0.00152491018974889</v>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>&gt; 0.05</t>
+        <v>0.04047116628538895</v>
+      </c>
+      <c r="F88">
+        <v>0.001207265490661384</v>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>&lt; 0.05</t>
         </is>
       </c>
     </row>
@@ -2486,18 +2926,23 @@
           <t>Stimulus</t>
         </is>
       </c>
-      <c r="C89">
-        <v>0.0009852426419562799</v>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>glaze_osc_full</t>
+        </is>
       </c>
       <c r="D89">
-        <v>0.0354610726910278</v>
+        <v>-0.002018384289305102</v>
       </c>
       <c r="E89">
-        <v>0.00152247826909072</v>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>&gt; 0.05</t>
+        <v>0.04075793865887457</v>
+      </c>
+      <c r="F89">
+        <v>0.001215819985675017</v>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>&lt; 0.05</t>
         </is>
       </c>
     </row>
@@ -2510,18 +2955,23 @@
           <t>Stimulus</t>
         </is>
       </c>
-      <c r="C90">
-        <v>0.000717012361156045</v>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>glaze_osc_full</t>
+        </is>
       </c>
       <c r="D90">
-        <v>0.035243386935787</v>
+        <v>-0.002298762919187018</v>
       </c>
       <c r="E90">
-        <v>0.00151313219446031</v>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>&gt; 0.05</t>
+        <v>0.04101518950088349</v>
+      </c>
+      <c r="F90">
+        <v>0.001223493845672303</v>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>&lt; 0.05</t>
         </is>
       </c>
     </row>
@@ -2534,16 +2984,21 @@
           <t>Stimulus</t>
         </is>
       </c>
-      <c r="C91">
-        <v>0.00280814391492669</v>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>glaze_osc_full</t>
+        </is>
       </c>
       <c r="D91">
-        <v>0.0346903662011786</v>
+        <v>-0.002315135054711683</v>
       </c>
       <c r="E91">
-        <v>0.00149010411084648</v>
-      </c>
-      <c r="F91" t="inlineStr">
+        <v>0.04086237892088844</v>
+      </c>
+      <c r="F91">
+        <v>0.001218935466046298</v>
+      </c>
+      <c r="G91" t="inlineStr">
         <is>
           <t>&lt; 0.05</t>
         </is>
@@ -2558,18 +3013,23 @@
           <t>Stimulus</t>
         </is>
       </c>
-      <c r="C92">
-        <v>0.00058970187199778</v>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>glaze_osc_full</t>
+        </is>
       </c>
       <c r="D92">
-        <v>0.0347981576538482</v>
+        <v>-0.001533662772968998</v>
       </c>
       <c r="E92">
-        <v>0.00149509332409738</v>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>&gt; 0.05</t>
+        <v>0.04011261425810521</v>
+      </c>
+      <c r="F92">
+        <v>0.001196569789774143</v>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>&lt; 0.05</t>
         </is>
       </c>
     </row>
@@ -2582,18 +3042,23 @@
           <t>Stimulus</t>
         </is>
       </c>
-      <c r="C93">
-        <v>0.00151806491581506</v>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>glaze_osc_full</t>
+        </is>
       </c>
       <c r="D93">
-        <v>0.0354150138401821</v>
+        <v>-0.00155306889113624</v>
       </c>
       <c r="E93">
-        <v>0.00152159638139398</v>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>&gt; 0.05</t>
+        <v>0.04082258295899596</v>
+      </c>
+      <c r="F93">
+        <v>0.001217748342079529</v>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>&lt; 0.05</t>
         </is>
       </c>
     </row>
@@ -2606,18 +3071,23 @@
           <t>Stimulus</t>
         </is>
       </c>
-      <c r="C94">
-        <v>0.000336713647013264</v>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>glaze_osc_full</t>
+        </is>
       </c>
       <c r="D94">
-        <v>0.034730079573101</v>
+        <v>-0.001628800347319077</v>
       </c>
       <c r="E94">
-        <v>0.00149252701919903</v>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>&gt; 0.05</t>
+        <v>0.04062928617527945</v>
+      </c>
+      <c r="F94">
+        <v>0.001211982248392206</v>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>&lt; 0.05</t>
         </is>
       </c>
     </row>
@@ -2630,18 +3100,23 @@
           <t>Stimulus</t>
         </is>
       </c>
-      <c r="C95">
-        <v>0.0008978009624869199</v>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>glaze_osc_full</t>
+        </is>
       </c>
       <c r="D95">
-        <v>0.0353295294157246</v>
+        <v>-0.001526942630853402</v>
       </c>
       <c r="E95">
-        <v>0.00151828840810939</v>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>&gt; 0.05</t>
+        <v>0.04080618951192569</v>
+      </c>
+      <c r="F95">
+        <v>0.001217259321259586</v>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>&lt; 0.05</t>
         </is>
       </c>
     </row>
@@ -2654,16 +3129,21 @@
           <t>Stimulus</t>
         </is>
       </c>
-      <c r="C96">
-        <v>0.00236628039769963</v>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>glaze_osc_full</t>
+        </is>
       </c>
       <c r="D96">
-        <v>0.0355218581831383</v>
+        <v>-0.001266355432684235</v>
       </c>
       <c r="E96">
-        <v>0.00152692083953715</v>
-      </c>
-      <c r="F96" t="inlineStr">
+        <v>0.04098329741808883</v>
+      </c>
+      <c r="F96">
+        <v>0.001222542496489237</v>
+      </c>
+      <c r="G96" t="inlineStr">
         <is>
           <t>&lt; 0.05</t>
         </is>
@@ -2678,18 +3158,23 @@
           <t>Stimulus</t>
         </is>
       </c>
-      <c r="C97">
-        <v>0.00206207367751898</v>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>glaze_osc_full</t>
+        </is>
       </c>
       <c r="D97">
-        <v>0.034740053635534</v>
+        <v>-0.0006901475181418565</v>
       </c>
       <c r="E97">
-        <v>0.00149331466809118</v>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>&lt; 0.05</t>
+        <v>0.0399273364130408</v>
+      </c>
+      <c r="F97">
+        <v>0.001191042903127164</v>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>&gt; 0.05</t>
         </is>
       </c>
     </row>
@@ -2702,18 +3187,23 @@
           <t>Stimulus</t>
         </is>
       </c>
-      <c r="C98">
-        <v>0.00132547292982842</v>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>glaze_osc_full</t>
+        </is>
       </c>
       <c r="D98">
-        <v>0.0352374993489986</v>
+        <v>-0.001507858954061348</v>
       </c>
       <c r="E98">
-        <v>0.00151506198145341</v>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>&gt; 0.05</t>
+        <v>0.04004619996559619</v>
+      </c>
+      <c r="F98">
+        <v>0.001194588634033104</v>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>&lt; 0.05</t>
         </is>
       </c>
     </row>
@@ -2726,16 +3216,21 @@
           <t>Stimulus</t>
         </is>
       </c>
-      <c r="C99">
-        <v>0.00139327960174288</v>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>glaze_osc_full</t>
+        </is>
       </c>
       <c r="D99">
-        <v>0.0351861769666646</v>
+        <v>-0.0007847085879025239</v>
       </c>
       <c r="E99">
-        <v>0.00151285533819812</v>
-      </c>
-      <c r="F99" t="inlineStr">
+        <v>0.04066780778183422</v>
+      </c>
+      <c r="F99">
+        <v>0.001213131358005467</v>
+      </c>
+      <c r="G99" t="inlineStr">
         <is>
           <t>&gt; 0.05</t>
         </is>
@@ -2750,16 +3245,21 @@
           <t>History</t>
         </is>
       </c>
-      <c r="C100">
-        <v>0.0328595882384255</v>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>glaze_osc_full</t>
+        </is>
       </c>
       <c r="D100">
-        <v>0.0334881372122273</v>
+        <v>0.01168265850861844</v>
       </c>
       <c r="E100">
-        <v>0.0014245053491241</v>
-      </c>
-      <c r="F100" t="inlineStr">
+        <v>0.04529498874192693</v>
+      </c>
+      <c r="F100">
+        <v>0.001351161378014604</v>
+      </c>
+      <c r="G100" t="inlineStr">
         <is>
           <t>&lt; 0.05</t>
         </is>
@@ -2774,16 +3274,21 @@
           <t>History</t>
         </is>
       </c>
-      <c r="C101">
-        <v>0.0086970638493085</v>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>glaze_osc_full</t>
+        </is>
       </c>
       <c r="D101">
-        <v>0.0361441660400609</v>
+        <v>0.007625897789515831</v>
       </c>
       <c r="E101">
-        <v>0.00153748646983257</v>
-      </c>
-      <c r="F101" t="inlineStr">
+        <v>0.0490117135159895</v>
+      </c>
+      <c r="F101">
+        <v>0.00146203225152417</v>
+      </c>
+      <c r="G101" t="inlineStr">
         <is>
           <t>&lt; 0.05</t>
         </is>
@@ -2798,16 +3303,21 @@
           <t>History</t>
         </is>
       </c>
-      <c r="C102">
-        <v>0.00618371826346663</v>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>glaze_osc_full</t>
+        </is>
       </c>
       <c r="D102">
-        <v>0.0368529368294447</v>
+        <v>0.009404015690486673</v>
       </c>
       <c r="E102">
-        <v>0.00156763588585956</v>
-      </c>
-      <c r="F102" t="inlineStr">
+        <v>0.05255967816036737</v>
+      </c>
+      <c r="F102">
+        <v>0.001567868966162919</v>
+      </c>
+      <c r="G102" t="inlineStr">
         <is>
           <t>&lt; 0.05</t>
         </is>
@@ -2822,16 +3332,21 @@
           <t>History</t>
         </is>
       </c>
-      <c r="C103">
-        <v>0.00557323020471785</v>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>glaze_osc_full</t>
+        </is>
       </c>
       <c r="D103">
-        <v>0.0362429643237994</v>
+        <v>0.009646836153895499</v>
       </c>
       <c r="E103">
-        <v>0.00154168911277977</v>
-      </c>
-      <c r="F103" t="inlineStr">
+        <v>0.05417942977677778</v>
+      </c>
+      <c r="F103">
+        <v>0.001616186581132203</v>
+      </c>
+      <c r="G103" t="inlineStr">
         <is>
           <t>&lt; 0.05</t>
         </is>
@@ -2846,16 +3361,21 @@
           <t>History</t>
         </is>
       </c>
-      <c r="C104">
-        <v>0.00425762457247169</v>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>glaze_osc_full</t>
+        </is>
       </c>
       <c r="D104">
-        <v>0.0353805968523495</v>
+        <v>0.01007870246094708</v>
       </c>
       <c r="E104">
-        <v>0.00150500606086184</v>
-      </c>
-      <c r="F104" t="inlineStr">
+        <v>0.05504011134071941</v>
+      </c>
+      <c r="F104">
+        <v>0.001641860937617707</v>
+      </c>
+      <c r="G104" t="inlineStr">
         <is>
           <t>&lt; 0.05</t>
         </is>
@@ -2870,16 +3390,21 @@
           <t>History</t>
         </is>
       </c>
-      <c r="C105">
-        <v>0.00342559553675081</v>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>glaze_osc_full</t>
+        </is>
       </c>
       <c r="D105">
-        <v>0.035577428303257</v>
+        <v>0.01137567917943678</v>
       </c>
       <c r="E105">
-        <v>0.00151337880052534</v>
-      </c>
-      <c r="F105" t="inlineStr">
+        <v>0.05690625392349691</v>
+      </c>
+      <c r="F105">
+        <v>0.001697528459649419</v>
+      </c>
+      <c r="G105" t="inlineStr">
         <is>
           <t>&lt; 0.05</t>
         </is>
@@ -2894,16 +3419,21 @@
           <t>History</t>
         </is>
       </c>
-      <c r="C106">
-        <v>0.00424450768493161</v>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>glaze_osc_full</t>
+        </is>
       </c>
       <c r="D106">
-        <v>0.0356772789129563</v>
+        <v>0.01097503181915335</v>
       </c>
       <c r="E106">
-        <v>0.00151762620690476</v>
-      </c>
-      <c r="F106" t="inlineStr">
+        <v>0.05583439209581672</v>
+      </c>
+      <c r="F106">
+        <v>0.001665554540583423</v>
+      </c>
+      <c r="G106" t="inlineStr">
         <is>
           <t>&lt; 0.05</t>
         </is>
@@ -2918,16 +3448,21 @@
           <t>History</t>
         </is>
       </c>
-      <c r="C107">
-        <v>0.00223100077536952</v>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>glaze_osc_full</t>
+        </is>
       </c>
       <c r="D107">
-        <v>0.0356777031651767</v>
+        <v>0.009577675826217841</v>
       </c>
       <c r="E107">
-        <v>0.00151800180906998</v>
-      </c>
-      <c r="F107" t="inlineStr">
+        <v>0.05594783263527511</v>
+      </c>
+      <c r="F107">
+        <v>0.001668938501588262</v>
+      </c>
+      <c r="G107" t="inlineStr">
         <is>
           <t>&lt; 0.05</t>
         </is>
@@ -2942,18 +3477,23 @@
           <t>History</t>
         </is>
       </c>
-      <c r="C108">
-        <v>0.00157592843536256</v>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>glaze_osc_full</t>
+        </is>
       </c>
       <c r="D108">
-        <v>0.0357036415224731</v>
+        <v>0.009211610064332092</v>
       </c>
       <c r="E108">
-        <v>0.00151910542476851</v>
-      </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>&gt; 0.05</t>
+        <v>0.05411029547056091</v>
+      </c>
+      <c r="F108">
+        <v>0.001614124286669822</v>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>&lt; 0.05</t>
         </is>
       </c>
     </row>
@@ -2966,16 +3506,21 @@
           <t>History</t>
         </is>
       </c>
-      <c r="C109">
-        <v>0.00282450026869099</v>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>glaze_osc_full</t>
+        </is>
       </c>
       <c r="D109">
-        <v>0.034942213114244</v>
+        <v>0.0104182629094821</v>
       </c>
       <c r="E109">
-        <v>0.00148670844854451</v>
-      </c>
-      <c r="F109" t="inlineStr">
+        <v>0.05510783939793443</v>
+      </c>
+      <c r="F109">
+        <v>0.001643881283304032</v>
+      </c>
+      <c r="G109" t="inlineStr">
         <is>
           <t>&lt; 0.05</t>
         </is>
@@ -2990,16 +3535,21 @@
           <t>History</t>
         </is>
       </c>
-      <c r="C110">
-        <v>0.0022099293851267</v>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>glaze_osc_full</t>
+        </is>
       </c>
       <c r="D110">
-        <v>0.0362118248624371</v>
+        <v>0.009275100096124868</v>
       </c>
       <c r="E110">
-        <v>0.00154072742285042</v>
-      </c>
-      <c r="F110" t="inlineStr">
+        <v>0.05413425958412878</v>
+      </c>
+      <c r="F110">
+        <v>0.001614839142454327</v>
+      </c>
+      <c r="G110" t="inlineStr">
         <is>
           <t>&lt; 0.05</t>
         </is>
@@ -3014,16 +3564,21 @@
           <t>History</t>
         </is>
       </c>
-      <c r="C111">
-        <v>0.00359039523712146</v>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>glaze_osc_full</t>
+        </is>
       </c>
       <c r="D111">
-        <v>0.0356562688738039</v>
+        <v>0.009051534953929959</v>
       </c>
       <c r="E111">
-        <v>0.00151708983071394</v>
-      </c>
-      <c r="F111" t="inlineStr">
+        <v>0.05356310013444988</v>
+      </c>
+      <c r="F111">
+        <v>0.00159780130647006</v>
+      </c>
+      <c r="G111" t="inlineStr">
         <is>
           <t>&lt; 0.05</t>
         </is>
@@ -3038,16 +3593,21 @@
           <t>History</t>
         </is>
       </c>
-      <c r="C112">
-        <v>0.00275089119506186</v>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>glaze_osc_full</t>
+        </is>
       </c>
       <c r="D112">
-        <v>0.0351113995740796</v>
+        <v>0.008408988288580121</v>
       </c>
       <c r="E112">
-        <v>0.0014939069318917</v>
-      </c>
-      <c r="F112" t="inlineStr">
+        <v>0.05366575296654472</v>
+      </c>
+      <c r="F112">
+        <v>0.001600863467338685</v>
+      </c>
+      <c r="G112" t="inlineStr">
         <is>
           <t>&lt; 0.05</t>
         </is>
@@ -3062,16 +3622,21 @@
           <t>History</t>
         </is>
       </c>
-      <c r="C113">
-        <v>0.00343965108511494</v>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>glaze_osc_full</t>
+        </is>
       </c>
       <c r="D113">
-        <v>0.0354255423014842</v>
+        <v>0.009976669023499597</v>
       </c>
       <c r="E113">
-        <v>0.00150762824069591</v>
-      </c>
-      <c r="F113" t="inlineStr">
+        <v>0.0535187440969243</v>
+      </c>
+      <c r="F113">
+        <v>0.001596478154252763</v>
+      </c>
+      <c r="G113" t="inlineStr">
         <is>
           <t>&lt; 0.05</t>
         </is>
@@ -3086,16 +3651,21 @@
           <t>History</t>
         </is>
       </c>
-      <c r="C114">
-        <v>0.00277889003020772</v>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>glaze_osc_full</t>
+        </is>
       </c>
       <c r="D114">
-        <v>0.0350667131962611</v>
+        <v>0.007046527674067447</v>
       </c>
       <c r="E114">
-        <v>0.00149235731306934</v>
-      </c>
-      <c r="F114" t="inlineStr">
+        <v>0.05197725815272686</v>
+      </c>
+      <c r="F114">
+        <v>0.001550495224785246</v>
+      </c>
+      <c r="G114" t="inlineStr">
         <is>
           <t>&lt; 0.05</t>
         </is>
@@ -3110,16 +3680,21 @@
           <t>History</t>
         </is>
       </c>
-      <c r="C115">
-        <v>0.00208460549000057</v>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>glaze_osc_full</t>
+        </is>
       </c>
       <c r="D115">
-        <v>0.0357563083952029</v>
+        <v>0.00672133545281464</v>
       </c>
       <c r="E115">
-        <v>0.00152170487217585</v>
-      </c>
-      <c r="F115" t="inlineStr">
+        <v>0.05123943941724805</v>
+      </c>
+      <c r="F115">
+        <v>0.001528485898653507</v>
+      </c>
+      <c r="G115" t="inlineStr">
         <is>
           <t>&lt; 0.05</t>
         </is>
@@ -3134,16 +3709,21 @@
           <t>History</t>
         </is>
       </c>
-      <c r="C116">
-        <v>0.00271039665362215</v>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>glaze_osc_full</t>
+        </is>
       </c>
       <c r="D116">
-        <v>0.035853056479372</v>
+        <v>0.006723659799037248</v>
       </c>
       <c r="E116">
-        <v>0.00152582224440081</v>
-      </c>
-      <c r="F116" t="inlineStr">
+        <v>0.05114065969517502</v>
+      </c>
+      <c r="F116">
+        <v>0.001525539273671292</v>
+      </c>
+      <c r="G116" t="inlineStr">
         <is>
           <t>&lt; 0.05</t>
         </is>
@@ -3158,16 +3738,21 @@
           <t>History</t>
         </is>
       </c>
-      <c r="C117">
-        <v>0.00227183598758494</v>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>glaze_osc_full</t>
+        </is>
       </c>
       <c r="D117">
-        <v>0.0358739002107842</v>
+        <v>0.00611276344987176</v>
       </c>
       <c r="E117">
-        <v>0.0015267093048684</v>
-      </c>
-      <c r="F117" t="inlineStr">
+        <v>0.04980095320927799</v>
+      </c>
+      <c r="F117">
+        <v>0.001485575478295753</v>
+      </c>
+      <c r="G117" t="inlineStr">
         <is>
           <t>&lt; 0.05</t>
         </is>
@@ -3182,16 +3767,21 @@
           <t>History</t>
         </is>
       </c>
-      <c r="C118">
-        <v>0.00187929008057576</v>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>glaze_osc_full</t>
+        </is>
       </c>
       <c r="D118">
-        <v>0.0351771306867944</v>
+        <v>0.005642022438534133</v>
       </c>
       <c r="E118">
-        <v>0.0014970564232644</v>
-      </c>
-      <c r="F118" t="inlineStr">
+        <v>0.05010492578543672</v>
+      </c>
+      <c r="F118">
+        <v>0.001494643059860269</v>
+      </c>
+      <c r="G118" t="inlineStr">
         <is>
           <t>&lt; 0.05</t>
         </is>
@@ -3206,18 +3796,23 @@
           <t>History</t>
         </is>
       </c>
-      <c r="C119">
-        <v>0.00163392632756186</v>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>glaze_osc_full</t>
+        </is>
       </c>
       <c r="D119">
-        <v>0.0353636632346943</v>
+        <v>0.005955363850944832</v>
       </c>
       <c r="E119">
-        <v>0.00150499481231233</v>
-      </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>&gt; 0.05</t>
+        <v>0.04935297604577007</v>
+      </c>
+      <c r="F119">
+        <v>0.001472212202172358</v>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>&lt; 0.05</t>
         </is>
       </c>
     </row>
@@ -3230,16 +3825,21 @@
           <t>History</t>
         </is>
       </c>
-      <c r="C120">
-        <v>0.00214528546375947</v>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>glaze_osc_full</t>
+        </is>
       </c>
       <c r="D120">
-        <v>0.0352378874246358</v>
+        <v>0.005672768515857712</v>
       </c>
       <c r="E120">
-        <v>0.0014999957354253</v>
-      </c>
-      <c r="F120" t="inlineStr">
+        <v>0.04866796158963961</v>
+      </c>
+      <c r="F120">
+        <v>0.001451778041524286</v>
+      </c>
+      <c r="G120" t="inlineStr">
         <is>
           <t>&lt; 0.05</t>
         </is>
@@ -3254,16 +3854,21 @@
           <t>History</t>
         </is>
       </c>
-      <c r="C121">
-        <v>0.00360077999994632</v>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>glaze_osc_full</t>
+        </is>
       </c>
       <c r="D121">
-        <v>0.0353449048400959</v>
+        <v>0.004610370739854385</v>
       </c>
       <c r="E121">
-        <v>0.00150455122040293</v>
-      </c>
-      <c r="F121" t="inlineStr">
+        <v>0.04748836139918133</v>
+      </c>
+      <c r="F121">
+        <v>0.001416590258877359</v>
+      </c>
+      <c r="G121" t="inlineStr">
         <is>
           <t>&lt; 0.05</t>
         </is>
@@ -3278,18 +3883,23 @@
           <t>History</t>
         </is>
       </c>
-      <c r="C122">
-        <v>0.0009358245835583879</v>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>glaze_osc_full</t>
+        </is>
       </c>
       <c r="D122">
-        <v>0.0350923083640298</v>
+        <v>0.005372460746603209</v>
       </c>
       <c r="E122">
-        <v>0.00149379876999872</v>
-      </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>&gt; 0.05</t>
+        <v>0.04562771629642321</v>
+      </c>
+      <c r="F122">
+        <v>0.001361086728114547</v>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>&lt; 0.05</t>
         </is>
       </c>
     </row>
@@ -3302,18 +3912,23 @@
           <t>History</t>
         </is>
       </c>
-      <c r="C123">
-        <v>0.00127696058017422</v>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>glaze_osc_full</t>
+        </is>
       </c>
       <c r="D123">
-        <v>0.0352780828480414</v>
+        <v>0.004112841686073805</v>
       </c>
       <c r="E123">
-        <v>0.00150170676205313</v>
-      </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>&gt; 0.05</t>
+        <v>0.04620475553449867</v>
+      </c>
+      <c r="F123">
+        <v>0.001378299959726742</v>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>&lt; 0.05</t>
         </is>
       </c>
     </row>
@@ -3326,16 +3941,21 @@
           <t>History</t>
         </is>
       </c>
-      <c r="C124">
-        <v>0.00182506370123669</v>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>glaze_osc_full</t>
+        </is>
       </c>
       <c r="D124">
-        <v>0.0347597120337414</v>
+        <v>0.003933224197279376</v>
       </c>
       <c r="E124">
-        <v>0.00147964090999313</v>
-      </c>
-      <c r="F124" t="inlineStr">
+        <v>0.0449436359039696</v>
+      </c>
+      <c r="F124">
+        <v>0.001340680430830609</v>
+      </c>
+      <c r="G124" t="inlineStr">
         <is>
           <t>&lt; 0.05</t>
         </is>
@@ -3350,16 +3970,21 @@
           <t>History</t>
         </is>
       </c>
-      <c r="C125">
-        <v>0.00167337368098171</v>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>glaze_osc_full</t>
+        </is>
       </c>
       <c r="D125">
-        <v>0.0341978693515365</v>
+        <v>0.001904437259444737</v>
       </c>
       <c r="E125">
-        <v>0.0014557245606067</v>
-      </c>
-      <c r="F125" t="inlineStr">
+        <v>0.04599000623687115</v>
+      </c>
+      <c r="F125">
+        <v>0.001371893931930526</v>
+      </c>
+      <c r="G125" t="inlineStr">
         <is>
           <t>&lt; 0.05</t>
         </is>
@@ -3374,16 +3999,21 @@
           <t>History</t>
         </is>
       </c>
-      <c r="C126">
-        <v>0.00214341270699453</v>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>glaze_osc_full</t>
+        </is>
       </c>
       <c r="D126">
-        <v>0.0347398198255666</v>
+        <v>0.002761448783315619</v>
       </c>
       <c r="E126">
-        <v>0.00147879414449125</v>
-      </c>
-      <c r="F126" t="inlineStr">
+        <v>0.0442414200123239</v>
+      </c>
+      <c r="F126">
+        <v>0.001319733146855649</v>
+      </c>
+      <c r="G126" t="inlineStr">
         <is>
           <t>&lt; 0.05</t>
         </is>
@@ -3398,18 +4028,23 @@
           <t>History</t>
         </is>
       </c>
-      <c r="C127">
-        <v>0.00113432904112315</v>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>glaze_osc_full</t>
+        </is>
       </c>
       <c r="D127">
-        <v>0.0358703451390457</v>
+        <v>0.001973695556080465</v>
       </c>
       <c r="E127">
-        <v>0.00152691800414758</v>
-      </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>&gt; 0.05</t>
+        <v>0.04430565259219149</v>
+      </c>
+      <c r="F127">
+        <v>0.001321649221537151</v>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>&lt; 0.05</t>
         </is>
       </c>
     </row>
@@ -3422,16 +4057,21 @@
           <t>History</t>
         </is>
       </c>
-      <c r="C128">
-        <v>0.00198973976735897</v>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>glaze_osc_full</t>
+        </is>
       </c>
       <c r="D128">
-        <v>0.0352993599399589</v>
+        <v>0.00281343626669771</v>
       </c>
       <c r="E128">
-        <v>0.00150261247886736</v>
-      </c>
-      <c r="F128" t="inlineStr">
+        <v>0.04394623483081392</v>
+      </c>
+      <c r="F128">
+        <v>0.001310927695575134</v>
+      </c>
+      <c r="G128" t="inlineStr">
         <is>
           <t>&lt; 0.05</t>
         </is>
@@ -3446,16 +4086,21 @@
           <t>History</t>
         </is>
       </c>
-      <c r="C129">
-        <v>0.00230180208529386</v>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>glaze_osc_full</t>
+        </is>
       </c>
       <c r="D129">
-        <v>0.0344503562873767</v>
+        <v>0.002082292661526913</v>
       </c>
       <c r="E129">
-        <v>0.0014664723481357</v>
-      </c>
-      <c r="F129" t="inlineStr">
+        <v>0.04381115650894956</v>
+      </c>
+      <c r="F129">
+        <v>0.001306898273853671</v>
+      </c>
+      <c r="G129" t="inlineStr">
         <is>
           <t>&lt; 0.05</t>
         </is>
@@ -3470,16 +4115,21 @@
           <t>History</t>
         </is>
       </c>
-      <c r="C130">
-        <v>0.000570405624519622</v>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>glaze_osc_full</t>
+        </is>
       </c>
       <c r="D130">
-        <v>0.0361767932398728</v>
+        <v>0.001276688591304418</v>
       </c>
       <c r="E130">
-        <v>0.00153996279422908</v>
-      </c>
-      <c r="F130" t="inlineStr">
+        <v>0.04434716298043453</v>
+      </c>
+      <c r="F130">
+        <v>0.001322887487291006</v>
+      </c>
+      <c r="G130" t="inlineStr">
         <is>
           <t>&gt; 0.05</t>
         </is>
@@ -3494,18 +4144,23 @@
           <t>History</t>
         </is>
       </c>
-      <c r="C131">
-        <v>-0.000242697600247411</v>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>glaze_osc_full</t>
+        </is>
       </c>
       <c r="D131">
-        <v>0.0347030290879241</v>
+        <v>0.001366023635924594</v>
       </c>
       <c r="E131">
-        <v>0.00147722804749735</v>
-      </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>&gt; 0.05</t>
+        <v>0.0437835747452477</v>
+      </c>
+      <c r="F131">
+        <v>0.001306075502618119</v>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>&lt; 0.05</t>
         </is>
       </c>
     </row>
@@ -3518,16 +4173,21 @@
           <t>History</t>
         </is>
       </c>
-      <c r="C132">
-        <v>8.20777720605313e-05</v>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>glaze_osc_full</t>
+        </is>
       </c>
       <c r="D132">
-        <v>0.035434622391198</v>
+        <v>0.0003741063524837362</v>
       </c>
       <c r="E132">
-        <v>0.00150872616359984</v>
-      </c>
-      <c r="F132" t="inlineStr">
+        <v>0.04367733460657602</v>
+      </c>
+      <c r="F132">
+        <v>0.001302906331454705</v>
+      </c>
+      <c r="G132" t="inlineStr">
         <is>
           <t>&gt; 0.05</t>
         </is>
@@ -3542,16 +4202,21 @@
           <t>History</t>
         </is>
       </c>
-      <c r="C133">
-        <v>0.000155009649792323</v>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>glaze_osc_full</t>
+        </is>
       </c>
       <c r="D133">
-        <v>0.0355127617217468</v>
+        <v>0.0002906604105385963</v>
       </c>
       <c r="E133">
-        <v>0.0015120531597536</v>
-      </c>
-      <c r="F133" t="inlineStr">
+        <v>0.04408323389820498</v>
+      </c>
+      <c r="F133">
+        <v>0.001315014413638748</v>
+      </c>
+      <c r="G133" t="inlineStr">
         <is>
           <t>&gt; 0.05</t>
         </is>
@@ -3566,16 +4231,21 @@
           <t>History</t>
         </is>
       </c>
-      <c r="C134">
-        <v>0.000753610305856785</v>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>glaze_osc_full</t>
+        </is>
       </c>
       <c r="D134">
-        <v>0.0353418523980849</v>
+        <v>0.0005112691179437487</v>
       </c>
       <c r="E134">
-        <v>0.00150477622688932</v>
-      </c>
-      <c r="F134" t="inlineStr">
+        <v>0.04351791334717944</v>
+      </c>
+      <c r="F134">
+        <v>0.001298150753530657</v>
+      </c>
+      <c r="G134" t="inlineStr">
         <is>
           <t>&gt; 0.05</t>
         </is>
@@ -3590,18 +4260,23 @@
           <t>History</t>
         </is>
       </c>
-      <c r="C135">
-        <v>0.00166354790468876</v>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>glaze_osc_full</t>
+        </is>
       </c>
       <c r="D135">
-        <v>0.0354999755454448</v>
+        <v>-0.001195952745604743</v>
       </c>
       <c r="E135">
-        <v>0.0015115087532546</v>
-      </c>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>&lt; 0.05</t>
+        <v>0.04409333401219751</v>
+      </c>
+      <c r="F135">
+        <v>0.001315315702684607</v>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>&gt; 0.05</t>
         </is>
       </c>
     </row>
@@ -3614,18 +4289,23 @@
           <t>History</t>
         </is>
       </c>
-      <c r="C136">
-        <v>0.00126183060445802</v>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>glaze_osc_full</t>
+        </is>
       </c>
       <c r="D136">
-        <v>0.0343831443607483</v>
+        <v>-0.001943751901331941</v>
       </c>
       <c r="E136">
-        <v>0.00146395660467874</v>
-      </c>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>&gt; 0.05</t>
+        <v>0.04405013216405231</v>
+      </c>
+      <c r="F136">
+        <v>0.001314026980238836</v>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>&lt; 0.05</t>
         </is>
       </c>
     </row>
@@ -3638,18 +4318,23 @@
           <t>History</t>
         </is>
       </c>
-      <c r="C137">
-        <v>0.00128628516441294</v>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>glaze_osc_full</t>
+        </is>
       </c>
       <c r="D137">
-        <v>0.0339670951520094</v>
+        <v>-0.001435196765743708</v>
       </c>
       <c r="E137">
-        <v>0.0014465835460078</v>
-      </c>
-      <c r="F137" t="inlineStr">
-        <is>
-          <t>&gt; 0.05</t>
+        <v>0.04474637101195557</v>
+      </c>
+      <c r="F137">
+        <v>0.001334795967433428</v>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>&lt; 0.05</t>
         </is>
       </c>
     </row>
@@ -3662,18 +4347,23 @@
           <t>History</t>
         </is>
       </c>
-      <c r="C138">
-        <v>0.000881118463722801</v>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>glaze_osc_full</t>
+        </is>
       </c>
       <c r="D138">
-        <v>0.0347364941292084</v>
+        <v>-0.002096788018925672</v>
       </c>
       <c r="E138">
-        <v>0.00147935054877181</v>
-      </c>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>&gt; 0.05</t>
+        <v>0.04404499639040045</v>
+      </c>
+      <c r="F138">
+        <v>0.001313873778765619</v>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>&lt; 0.05</t>
         </is>
       </c>
     </row>
@@ -3686,18 +4376,23 @@
           <t>History</t>
         </is>
       </c>
-      <c r="C139">
-        <v>0.00136895598515686</v>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>glaze_osc_full</t>
+        </is>
       </c>
       <c r="D139">
-        <v>0.0350540193907934</v>
+        <v>-0.002836367768214766</v>
       </c>
       <c r="E139">
-        <v>0.00149287324821947</v>
-      </c>
-      <c r="F139" t="inlineStr">
-        <is>
-          <t>&gt; 0.05</t>
+        <v>0.04560302134980412</v>
+      </c>
+      <c r="F139">
+        <v>0.001360350071388701</v>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>&lt; 0.05</t>
         </is>
       </c>
     </row>
@@ -3710,18 +4405,23 @@
           <t>History</t>
         </is>
       </c>
-      <c r="C140">
-        <v>0.00114972172961938</v>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>glaze_osc_full</t>
+        </is>
       </c>
       <c r="D140">
-        <v>0.0342275866375313</v>
+        <v>-0.003592824099703436</v>
       </c>
       <c r="E140">
-        <v>0.00145767730292592</v>
-      </c>
-      <c r="F140" t="inlineStr">
-        <is>
-          <t>&gt; 0.05</t>
+        <v>0.0451091700510206</v>
+      </c>
+      <c r="F140">
+        <v>0.0013456183577945</v>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>&lt; 0.05</t>
         </is>
       </c>
     </row>
@@ -3734,18 +4434,23 @@
           <t>History</t>
         </is>
       </c>
-      <c r="C141">
-        <v>0.000693298381367302</v>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>glaze_osc_full</t>
+        </is>
       </c>
       <c r="D141">
-        <v>0.035387571486823</v>
+        <v>-0.003118700233787321</v>
       </c>
       <c r="E141">
-        <v>0.00150707849514133</v>
-      </c>
-      <c r="F141" t="inlineStr">
-        <is>
-          <t>&gt; 0.05</t>
+        <v>0.04550521821217154</v>
+      </c>
+      <c r="F141">
+        <v>0.001357432578176136</v>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>&lt; 0.05</t>
         </is>
       </c>
     </row>
@@ -3758,16 +4463,21 @@
           <t>History</t>
         </is>
       </c>
-      <c r="C142">
-        <v>0.00204151090464996</v>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>glaze_osc_full</t>
+        </is>
       </c>
       <c r="D142">
-        <v>0.0348660193536662</v>
+        <v>-0.003852055062589762</v>
       </c>
       <c r="E142">
-        <v>0.00148521740123783</v>
-      </c>
-      <c r="F142" t="inlineStr">
+        <v>0.04689555828148337</v>
+      </c>
+      <c r="F142">
+        <v>0.001398906786607088</v>
+      </c>
+      <c r="G142" t="inlineStr">
         <is>
           <t>&lt; 0.05</t>
         </is>
@@ -3782,18 +4492,23 @@
           <t>History</t>
         </is>
       </c>
-      <c r="C143">
-        <v>0.000321327704164156</v>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>glaze_osc_full</t>
+        </is>
       </c>
       <c r="D143">
-        <v>0.0344762480866679</v>
+        <v>-0.005063837991305581</v>
       </c>
       <c r="E143">
-        <v>0.00146861398395705</v>
-      </c>
-      <c r="F143" t="inlineStr">
-        <is>
-          <t>&gt; 0.05</t>
+        <v>0.04690206648360477</v>
+      </c>
+      <c r="F143">
+        <v>0.001399100927981023</v>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>&lt; 0.05</t>
         </is>
       </c>
     </row>
@@ -3806,18 +4521,23 @@
           <t>History</t>
         </is>
       </c>
-      <c r="C144">
-        <v>0.00115437040193945</v>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>glaze_osc_full</t>
+        </is>
       </c>
       <c r="D144">
-        <v>0.0346247889443926</v>
+        <v>-0.005213425605297425</v>
       </c>
       <c r="E144">
-        <v>0.00147528998485457</v>
-      </c>
-      <c r="F144" t="inlineStr">
-        <is>
-          <t>&gt; 0.05</t>
+        <v>0.04844682127798017</v>
+      </c>
+      <c r="F144">
+        <v>0.001445181368105538</v>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>&lt; 0.05</t>
         </is>
       </c>
     </row>
@@ -3830,18 +4550,23 @@
           <t>History</t>
         </is>
       </c>
-      <c r="C145">
-        <v>0.00145756291136087</v>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>glaze_osc_full</t>
+        </is>
       </c>
       <c r="D145">
-        <v>0.0345731312821363</v>
+        <v>-0.005721751883491225</v>
       </c>
       <c r="E145">
-        <v>0.00147343716651716</v>
-      </c>
-      <c r="F145" t="inlineStr">
-        <is>
-          <t>&gt; 0.05</t>
+        <v>0.04785461933003868</v>
+      </c>
+      <c r="F145">
+        <v>0.001427515828886563</v>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>&lt; 0.05</t>
         </is>
       </c>
     </row>
@@ -3854,18 +4579,23 @@
           <t>History</t>
         </is>
       </c>
-      <c r="C146">
-        <v>0.000669509234867857</v>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>glaze_osc_full</t>
+        </is>
       </c>
       <c r="D146">
-        <v>0.0352530262246638</v>
+        <v>-0.005700066867563669</v>
       </c>
       <c r="E146">
-        <v>0.00150276822486912</v>
-      </c>
-      <c r="F146" t="inlineStr">
-        <is>
-          <t>&gt; 0.05</t>
+        <v>0.04790734490488929</v>
+      </c>
+      <c r="F146">
+        <v>0.001429088646594448</v>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>&lt; 0.05</t>
         </is>
       </c>
     </row>
@@ -3878,16 +4608,21 @@
           <t>History</t>
         </is>
       </c>
-      <c r="C147">
-        <v>0.00151652690893512</v>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>glaze_osc_full</t>
+        </is>
       </c>
       <c r="D147">
-        <v>0.0353869515470607</v>
+        <v>-0.005220682761471866</v>
       </c>
       <c r="E147">
-        <v>0.001508834111273</v>
-      </c>
-      <c r="F147" t="inlineStr">
+        <v>0.04800967299686955</v>
+      </c>
+      <c r="F147">
+        <v>0.001432141120380398</v>
+      </c>
+      <c r="G147" t="inlineStr">
         <is>
           <t>&lt; 0.05</t>
         </is>
@@ -3902,18 +4637,23 @@
           <t>History</t>
         </is>
       </c>
-      <c r="C148">
-        <v>0.000420090059087659</v>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>glaze_osc_full</t>
+        </is>
       </c>
       <c r="D148">
-        <v>0.0345222791333918</v>
+        <v>-0.004479605627407888</v>
       </c>
       <c r="E148">
-        <v>0.00147266319881119</v>
-      </c>
-      <c r="F148" t="inlineStr">
-        <is>
-          <t>&gt; 0.05</t>
+        <v>0.04730021665861182</v>
+      </c>
+      <c r="F148">
+        <v>0.001410977851986555</v>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>&lt; 0.05</t>
         </is>
       </c>
     </row>
@@ -3926,18 +4666,23 @@
           <t>History</t>
         </is>
       </c>
-      <c r="C149">
-        <v>0.000278850611861586</v>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>glaze_osc_full</t>
+        </is>
       </c>
       <c r="D149">
-        <v>0.0339750561079893</v>
+        <v>-0.004202315551205872</v>
       </c>
       <c r="E149">
-        <v>0.00144931957170191</v>
-      </c>
-      <c r="F149" t="inlineStr">
-        <is>
-          <t>&gt; 0.05</t>
+        <v>0.0484470270228956</v>
+      </c>
+      <c r="F149">
+        <v>0.001445187505530254</v>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>&lt; 0.05</t>
         </is>
       </c>
     </row>
@@ -3950,18 +4695,23 @@
           <t>History</t>
         </is>
       </c>
-      <c r="C150">
-        <v>-0.00114216687327632</v>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>glaze_osc_full</t>
+        </is>
       </c>
       <c r="D150">
-        <v>0.0345493032516014</v>
+        <v>-0.006426320529471607</v>
       </c>
       <c r="E150">
-        <v>0.001473816002895</v>
-      </c>
-      <c r="F150" t="inlineStr">
-        <is>
-          <t>&gt; 0.05</t>
+        <v>0.04770304380958409</v>
+      </c>
+      <c r="F150">
+        <v>0.001422994291410141</v>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>&lt; 0.05</t>
         </is>
       </c>
     </row>
@@ -3974,18 +4724,23 @@
           <t>History</t>
         </is>
       </c>
-      <c r="C151">
-        <v>5.51285480116951e-05</v>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>glaze_osc_full</t>
+        </is>
       </c>
       <c r="D151">
-        <v>0.034750287802983</v>
+        <v>-0.004349108242472313</v>
       </c>
       <c r="E151">
-        <v>0.00148238967067648</v>
-      </c>
-      <c r="F151" t="inlineStr">
-        <is>
-          <t>&gt; 0.05</t>
+        <v>0.04775725755900917</v>
+      </c>
+      <c r="F151">
+        <v>0.001424611501755372</v>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>&lt; 0.05</t>
         </is>
       </c>
     </row>
@@ -3998,18 +4753,23 @@
           <t>History</t>
         </is>
       </c>
-      <c r="C152">
-        <v>0.000786179905169241</v>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>glaze_osc_full</t>
+        </is>
       </c>
       <c r="D152">
-        <v>0.0336657486645922</v>
+        <v>-0.004878445071653567</v>
       </c>
       <c r="E152">
-        <v>0.00143612502891841</v>
-      </c>
-      <c r="F152" t="inlineStr">
-        <is>
-          <t>&gt; 0.05</t>
+        <v>0.0471989099291274</v>
+      </c>
+      <c r="F152">
+        <v>0.001407955845711375</v>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>&lt; 0.05</t>
         </is>
       </c>
     </row>
@@ -4022,18 +4782,23 @@
           <t>History</t>
         </is>
       </c>
-      <c r="C153">
-        <v>0.0013402498805252</v>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>glaze_osc_full</t>
+        </is>
       </c>
       <c r="D153">
-        <v>0.0349274334523472</v>
+        <v>-0.006523751322243035</v>
       </c>
       <c r="E153">
-        <v>0.00149065271356626</v>
-      </c>
-      <c r="F153" t="inlineStr">
-        <is>
-          <t>&gt; 0.05</t>
+        <v>0.04772504711693764</v>
+      </c>
+      <c r="F153">
+        <v>0.001423650655831691</v>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>&lt; 0.05</t>
         </is>
       </c>
     </row>
@@ -4046,18 +4811,23 @@
           <t>History</t>
         </is>
       </c>
-      <c r="C154">
-        <v>0.000664393738839247</v>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>glaze_osc_full</t>
+        </is>
       </c>
       <c r="D154">
-        <v>0.0351353293055288</v>
+        <v>-0.004871857906874007</v>
       </c>
       <c r="E154">
-        <v>0.00149952541009883</v>
-      </c>
-      <c r="F154" t="inlineStr">
-        <is>
-          <t>&gt; 0.05</t>
+        <v>0.04746145086622425</v>
+      </c>
+      <c r="F154">
+        <v>0.001415787510630736</v>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>&lt; 0.05</t>
         </is>
       </c>
     </row>
@@ -4070,18 +4840,23 @@
           <t>History</t>
         </is>
       </c>
-      <c r="C155">
-        <v>0.000199226678845622</v>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>glaze_osc_full</t>
+        </is>
       </c>
       <c r="D155">
-        <v>0.034756563533582</v>
+        <v>-0.005215897051658929</v>
       </c>
       <c r="E155">
-        <v>0.00148371202970053</v>
-      </c>
-      <c r="F155" t="inlineStr">
-        <is>
-          <t>&gt; 0.05</t>
+        <v>0.04699713844050902</v>
+      </c>
+      <c r="F155">
+        <v>0.001401936949357101</v>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>&lt; 0.05</t>
         </is>
       </c>
     </row>
@@ -4094,18 +4869,23 @@
           <t>History</t>
         </is>
       </c>
-      <c r="C156">
-        <v>0.000188670636872051</v>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>glaze_osc_full</t>
+        </is>
       </c>
       <c r="D156">
-        <v>0.0340368323845317</v>
+        <v>-0.004540379111279018</v>
       </c>
       <c r="E156">
-        <v>0.00145367741655851</v>
-      </c>
-      <c r="F156" t="inlineStr">
-        <is>
-          <t>&gt; 0.05</t>
+        <v>0.04659439989511807</v>
+      </c>
+      <c r="F156">
+        <v>0.001389923153061213</v>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>&lt; 0.05</t>
         </is>
       </c>
     </row>
@@ -4118,16 +4898,21 @@
           <t>History</t>
         </is>
       </c>
-      <c r="C157">
-        <v>0.00173603219921894</v>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>glaze_osc_full</t>
+        </is>
       </c>
       <c r="D157">
-        <v>0.03525473006813</v>
+        <v>-0.003436966773249527</v>
       </c>
       <c r="E157">
-        <v>0.00150605015363056</v>
-      </c>
-      <c r="F157" t="inlineStr">
+        <v>0.04533118633396017</v>
+      </c>
+      <c r="F157">
+        <v>0.001352241161665972</v>
+      </c>
+      <c r="G157" t="inlineStr">
         <is>
           <t>&lt; 0.05</t>
         </is>
@@ -4142,18 +4927,23 @@
           <t>History</t>
         </is>
       </c>
-      <c r="C158">
-        <v>0.000760738225331253</v>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>glaze_osc_full</t>
+        </is>
       </c>
       <c r="D158">
-        <v>0.0336612001028907</v>
+        <v>-0.00425591190321836</v>
       </c>
       <c r="E158">
-        <v>0.00143831767982194</v>
-      </c>
-      <c r="F158" t="inlineStr">
-        <is>
-          <t>&gt; 0.05</t>
+        <v>0.04677365705566903</v>
+      </c>
+      <c r="F158">
+        <v>0.001395270441112194</v>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>&lt; 0.05</t>
         </is>
       </c>
     </row>
@@ -4166,18 +4956,23 @@
           <t>History</t>
         </is>
       </c>
-      <c r="C159">
-        <v>0.00133273645751049</v>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>glaze_osc_full</t>
+        </is>
       </c>
       <c r="D159">
-        <v>0.0345714244115754</v>
+        <v>-0.003669855865939552</v>
       </c>
       <c r="E159">
-        <v>0.0014779134750469</v>
-      </c>
-      <c r="F159" t="inlineStr">
-        <is>
-          <t>&gt; 0.05</t>
+        <v>0.04682514927757643</v>
+      </c>
+      <c r="F159">
+        <v>0.001396806467578739</v>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>&lt; 0.05</t>
         </is>
       </c>
     </row>
@@ -4190,18 +4985,23 @@
           <t>History</t>
         </is>
       </c>
-      <c r="C160">
-        <v>0.000180740389410233</v>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>glaze_osc_full</t>
+        </is>
       </c>
       <c r="D160">
-        <v>0.0348652889418723</v>
+        <v>-0.003581417106979576</v>
       </c>
       <c r="E160">
-        <v>0.00149083072105329</v>
-      </c>
-      <c r="F160" t="inlineStr">
-        <is>
-          <t>&gt; 0.05</t>
+        <v>0.04768347775545082</v>
+      </c>
+      <c r="F160">
+        <v>0.001422410630890527</v>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>&lt; 0.05</t>
         </is>
       </c>
     </row>
@@ -4214,18 +5014,23 @@
           <t>History</t>
         </is>
       </c>
-      <c r="C161">
-        <v>0.000983437909779227</v>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>glaze_osc_full</t>
+        </is>
       </c>
       <c r="D161">
-        <v>0.0351553835256861</v>
+        <v>-0.003291063665983076</v>
       </c>
       <c r="E161">
-        <v>0.00150359296080763</v>
-      </c>
-      <c r="F161" t="inlineStr">
-        <is>
-          <t>&gt; 0.05</t>
+        <v>0.04721606940901122</v>
+      </c>
+      <c r="F161">
+        <v>0.001408467717490788</v>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>&lt; 0.05</t>
         </is>
       </c>
     </row>
@@ -4238,18 +5043,23 @@
           <t>History</t>
         </is>
       </c>
-      <c r="C162">
-        <v>-0.000684664798919444</v>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>glaze_osc_full</t>
+        </is>
       </c>
       <c r="D162">
-        <v>0.0337980913308219</v>
+        <v>-0.002650350364839323</v>
       </c>
       <c r="E162">
-        <v>0.00144554168145049</v>
-      </c>
-      <c r="F162" t="inlineStr">
-        <is>
-          <t>&gt; 0.05</t>
+        <v>0.04743149183472142</v>
+      </c>
+      <c r="F162">
+        <v>0.001414893824874018</v>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>&lt; 0.05</t>
         </is>
       </c>
     </row>
@@ -4262,18 +5072,23 @@
           <t>History</t>
         </is>
       </c>
-      <c r="C163">
-        <v>0.0007922630502356399</v>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>glaze_osc_full</t>
+        </is>
       </c>
       <c r="D163">
-        <v>0.0340702816884656</v>
+        <v>-0.003872043992022156</v>
       </c>
       <c r="E163">
-        <v>0.00145718324142534</v>
-      </c>
-      <c r="F163" t="inlineStr">
-        <is>
-          <t>&gt; 0.05</t>
+        <v>0.04723630751903213</v>
+      </c>
+      <c r="F163">
+        <v>0.001409071425613558</v>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>&lt; 0.05</t>
         </is>
       </c>
     </row>
@@ -4286,18 +5101,23 @@
           <t>History</t>
         </is>
       </c>
-      <c r="C164">
-        <v>-0.000433583997746738</v>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>glaze_osc_full</t>
+        </is>
       </c>
       <c r="D164">
-        <v>0.033670263031233</v>
+        <v>-0.003748829078232164</v>
       </c>
       <c r="E164">
-        <v>0.00144041747261016</v>
-      </c>
-      <c r="F164" t="inlineStr">
-        <is>
-          <t>&gt; 0.05</t>
+        <v>0.04759238957106389</v>
+      </c>
+      <c r="F164">
+        <v>0.001419693446492087</v>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>&lt; 0.05</t>
         </is>
       </c>
     </row>
@@ -4310,18 +5130,23 @@
           <t>History</t>
         </is>
       </c>
-      <c r="C165">
-        <v>0.000492182921476016</v>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>glaze_osc_full</t>
+        </is>
       </c>
       <c r="D165">
-        <v>0.0339467368364631</v>
+        <v>-0.003506823765999197</v>
       </c>
       <c r="E165">
-        <v>0.00145293742127509</v>
-      </c>
-      <c r="F165" t="inlineStr">
-        <is>
-          <t>&gt; 0.05</t>
+        <v>0.04596870404340359</v>
+      </c>
+      <c r="F165">
+        <v>0.001371258481919833</v>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>&lt; 0.05</t>
         </is>
       </c>
     </row>
@@ -4334,18 +5159,23 @@
           <t>History</t>
         </is>
       </c>
-      <c r="C166">
-        <v>0.000382565682931213</v>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>glaze_osc_full</t>
+        </is>
       </c>
       <c r="D166">
-        <v>0.0353761533933141</v>
+        <v>-0.00269181546592743</v>
       </c>
       <c r="E166">
-        <v>0.00151411716930343</v>
-      </c>
-      <c r="F166" t="inlineStr">
-        <is>
-          <t>&gt; 0.05</t>
+        <v>0.04770547096966366</v>
+      </c>
+      <c r="F166">
+        <v>0.001423066694231046</v>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>&lt; 0.05</t>
         </is>
       </c>
     </row>
@@ -4358,18 +5188,23 @@
           <t>History</t>
         </is>
       </c>
-      <c r="C167">
-        <v>0.0008580288703059331</v>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>glaze_osc_full</t>
+        </is>
       </c>
       <c r="D167">
-        <v>0.0345965171017813</v>
+        <v>-0.00251630319031583</v>
       </c>
       <c r="E167">
-        <v>0.00148145497616291</v>
-      </c>
-      <c r="F167" t="inlineStr">
-        <is>
-          <t>&gt; 0.05</t>
+        <v>0.04587242657061093</v>
+      </c>
+      <c r="F167">
+        <v>0.001368386499689051</v>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>&lt; 0.05</t>
         </is>
       </c>
     </row>
@@ -4382,18 +5217,23 @@
           <t>History</t>
         </is>
       </c>
-      <c r="C168">
-        <v>0.00131635257309794</v>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>glaze_osc_full</t>
+        </is>
       </c>
       <c r="D168">
-        <v>0.0344859457667994</v>
+        <v>-0.002308437546935987</v>
       </c>
       <c r="E168">
-        <v>0.00147707277437471</v>
-      </c>
-      <c r="F168" t="inlineStr">
-        <is>
-          <t>&gt; 0.05</t>
+        <v>0.046884282798708</v>
+      </c>
+      <c r="F168">
+        <v>0.00139857043600258</v>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>&lt; 0.05</t>
         </is>
       </c>
     </row>
@@ -4406,18 +5246,23 @@
           <t>History</t>
         </is>
       </c>
-      <c r="C169">
-        <v>0.000870597284611036</v>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>glaze_osc_full</t>
+        </is>
       </c>
       <c r="D169">
-        <v>0.033844990440994</v>
+        <v>-0.003029111266634832</v>
       </c>
       <c r="E169">
-        <v>0.00144996618017272</v>
-      </c>
-      <c r="F169" t="inlineStr">
-        <is>
-          <t>&gt; 0.05</t>
+        <v>0.04706037900974335</v>
+      </c>
+      <c r="F169">
+        <v>0.001403823432101581</v>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>&lt; 0.05</t>
         </is>
       </c>
     </row>
@@ -4430,18 +5275,23 @@
           <t>History</t>
         </is>
       </c>
-      <c r="C170">
-        <v>9.05624636315044e-05</v>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>glaze_osc_full</t>
+        </is>
       </c>
       <c r="D170">
-        <v>0.0333658783452819</v>
+        <v>-0.004723259593400416</v>
       </c>
       <c r="E170">
-        <v>0.00142944035563436</v>
-      </c>
-      <c r="F170" t="inlineStr">
-        <is>
-          <t>&gt; 0.05</t>
+        <v>0.04577184771148097</v>
+      </c>
+      <c r="F170">
+        <v>0.001365386205977191</v>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>&lt; 0.05</t>
         </is>
       </c>
     </row>
@@ -4454,18 +5304,23 @@
           <t>History</t>
         </is>
       </c>
-      <c r="C171">
-        <v>0.000735542936241106</v>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>glaze_osc_full</t>
+        </is>
       </c>
       <c r="D171">
-        <v>0.0346605495224801</v>
+        <v>-0.00446065173047564</v>
       </c>
       <c r="E171">
-        <v>0.00148526071732576</v>
-      </c>
-      <c r="F171" t="inlineStr">
-        <is>
-          <t>&gt; 0.05</t>
+        <v>0.04526479113180134</v>
+      </c>
+      <c r="F171">
+        <v>0.00135026057539508</v>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>&lt; 0.05</t>
         </is>
       </c>
     </row>
@@ -4478,18 +5333,23 @@
           <t>History</t>
         </is>
       </c>
-      <c r="C172">
-        <v>0.00116698702915405</v>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>glaze_osc_full</t>
+        </is>
       </c>
       <c r="D172">
-        <v>0.0343951906686594</v>
+        <v>-0.005044402734523872</v>
       </c>
       <c r="E172">
-        <v>0.00147424205482831</v>
-      </c>
-      <c r="F172" t="inlineStr">
-        <is>
-          <t>&gt; 0.05</t>
+        <v>0.04630721191672552</v>
+      </c>
+      <c r="F172">
+        <v>0.00138135626044435</v>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>&lt; 0.05</t>
         </is>
       </c>
     </row>
@@ -4502,16 +5362,21 @@
           <t>History</t>
         </is>
       </c>
-      <c r="C173">
-        <v>0.00208207960582166</v>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>glaze_osc_full</t>
+        </is>
       </c>
       <c r="D173">
-        <v>0.0350938981189998</v>
+        <v>-0.005206909875813004</v>
       </c>
       <c r="E173">
-        <v>0.0015041899599653</v>
-      </c>
-      <c r="F173" t="inlineStr">
+        <v>0.04728281343623809</v>
+      </c>
+      <c r="F173">
+        <v>0.001410458709304825</v>
+      </c>
+      <c r="G173" t="inlineStr">
         <is>
           <t>&lt; 0.05</t>
         </is>
@@ -4526,18 +5391,23 @@
           <t>History</t>
         </is>
       </c>
-      <c r="C174">
-        <v>0.000763208025071006</v>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>glaze_osc_full</t>
+        </is>
       </c>
       <c r="D174">
-        <v>0.0337446408016347</v>
+        <v>-0.004841519705459204</v>
       </c>
       <c r="E174">
-        <v>0.00144635827357616</v>
-      </c>
-      <c r="F174" t="inlineStr">
-        <is>
-          <t>&gt; 0.05</t>
+        <v>0.04597319230750697</v>
+      </c>
+      <c r="F174">
+        <v>0.001371392368013621</v>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>&lt; 0.05</t>
         </is>
       </c>
     </row>
@@ -4550,18 +5420,23 @@
           <t>History</t>
         </is>
       </c>
-      <c r="C175">
-        <v>0.00147238075063902</v>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>glaze_osc_full</t>
+        </is>
       </c>
       <c r="D175">
-        <v>0.0338745641384752</v>
+        <v>-0.005602109921585238</v>
       </c>
       <c r="E175">
-        <v>0.00145192703023517</v>
-      </c>
-      <c r="F175" t="inlineStr">
-        <is>
-          <t>&gt; 0.05</t>
+        <v>0.04669206958716044</v>
+      </c>
+      <c r="F175">
+        <v>0.00139283666555687</v>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>&lt; 0.05</t>
         </is>
       </c>
     </row>
@@ -4574,18 +5449,23 @@
           <t>History</t>
         </is>
       </c>
-      <c r="C176">
-        <v>-0.000193646357336886</v>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>glaze_osc_full</t>
+        </is>
       </c>
       <c r="D176">
-        <v>0.0339018652233833</v>
+        <v>-0.005227219512459558</v>
       </c>
       <c r="E176">
-        <v>0.00145344479501697</v>
-      </c>
-      <c r="F176" t="inlineStr">
-        <is>
-          <t>&gt; 0.05</t>
+        <v>0.04737303797123732</v>
+      </c>
+      <c r="F176">
+        <v>0.00141315013081582</v>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>&lt; 0.05</t>
         </is>
       </c>
     </row>
@@ -4598,18 +5478,23 @@
           <t>History</t>
         </is>
       </c>
-      <c r="C177">
-        <v>0.000246044633016544</v>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>glaze_osc_full</t>
+        </is>
       </c>
       <c r="D177">
-        <v>0.0334711342072445</v>
+        <v>-0.00679512760653048</v>
       </c>
       <c r="E177">
-        <v>0.00143497844370166</v>
-      </c>
-      <c r="F177" t="inlineStr">
-        <is>
-          <t>&gt; 0.05</t>
+        <v>0.04754872455176611</v>
+      </c>
+      <c r="F177">
+        <v>0.001418390907529519</v>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>&lt; 0.05</t>
         </is>
       </c>
     </row>
@@ -4622,18 +5507,23 @@
           <t>History</t>
         </is>
       </c>
-      <c r="C178">
-        <v>0.0009813984131421261</v>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>glaze_osc_full</t>
+        </is>
       </c>
       <c r="D178">
-        <v>0.0340333418105987</v>
+        <v>-0.007434566667076741</v>
       </c>
       <c r="E178">
-        <v>0.00145908147488977</v>
-      </c>
-      <c r="F178" t="inlineStr">
-        <is>
-          <t>&gt; 0.05</t>
+        <v>0.04625679571958337</v>
+      </c>
+      <c r="F178">
+        <v>0.00137985233207839</v>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>&lt; 0.05</t>
         </is>
       </c>
     </row>
@@ -4646,18 +5536,23 @@
           <t>History</t>
         </is>
       </c>
-      <c r="C179">
-        <v>0.00101994215803361</v>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>glaze_osc_full</t>
+        </is>
       </c>
       <c r="D179">
-        <v>0.0347031098244778</v>
+        <v>-0.006591747544496515</v>
       </c>
       <c r="E179">
-        <v>0.00148779584878121</v>
-      </c>
-      <c r="F179" t="inlineStr">
-        <is>
-          <t>&gt; 0.05</t>
+        <v>0.04540927396985365</v>
+      </c>
+      <c r="F179">
+        <v>0.001354570536297697</v>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>&lt; 0.05</t>
         </is>
       </c>
     </row>
@@ -4670,18 +5565,23 @@
           <t>History</t>
         </is>
       </c>
-      <c r="C180">
-        <v>-2.64801722867651e-05</v>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>glaze_osc_full</t>
+        </is>
       </c>
       <c r="D180">
-        <v>0.0336258885220365</v>
+        <v>-0.00690801595059526</v>
       </c>
       <c r="E180">
-        <v>0.00144195809640316</v>
-      </c>
-      <c r="F180" t="inlineStr">
-        <is>
-          <t>&gt; 0.05</t>
+        <v>0.04600711714332693</v>
+      </c>
+      <c r="F180">
+        <v>0.001372404354751858</v>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>&lt; 0.05</t>
         </is>
       </c>
     </row>
@@ -4694,18 +5594,23 @@
           <t>History</t>
         </is>
       </c>
-      <c r="C181">
-        <v>0.00109331496672211</v>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>glaze_osc_full</t>
+        </is>
       </c>
       <c r="D181">
-        <v>0.034145251905579</v>
+        <v>-0.005833120133206553</v>
       </c>
       <c r="E181">
-        <v>0.00146458022159417</v>
-      </c>
-      <c r="F181" t="inlineStr">
-        <is>
-          <t>&gt; 0.05</t>
+        <v>0.04559781083652777</v>
+      </c>
+      <c r="F181">
+        <v>0.001360194640412909</v>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>&lt; 0.05</t>
         </is>
       </c>
     </row>
@@ -4718,18 +5623,23 @@
           <t>History</t>
         </is>
       </c>
-      <c r="C182">
-        <v>0.0010345608112663</v>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>glaze_osc_full</t>
+        </is>
       </c>
       <c r="D182">
-        <v>0.0343231666141997</v>
+        <v>-0.004506574600195709</v>
       </c>
       <c r="E182">
-        <v>0.00147221145430837</v>
-      </c>
-      <c r="F182" t="inlineStr">
-        <is>
-          <t>&gt; 0.05</t>
+        <v>0.04595297916052172</v>
+      </c>
+      <c r="F182">
+        <v>0.001370789404544744</v>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>&lt; 0.05</t>
         </is>
       </c>
     </row>
@@ -4742,18 +5652,23 @@
           <t>History</t>
         </is>
       </c>
-      <c r="C183">
-        <v>0.00138171733792211</v>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>glaze_osc_full</t>
+        </is>
       </c>
       <c r="D183">
-        <v>0.0340847708643285</v>
+        <v>-0.004659601131750355</v>
       </c>
       <c r="E183">
-        <v>0.00146233624791026</v>
-      </c>
-      <c r="F183" t="inlineStr">
-        <is>
-          <t>&gt; 0.05</t>
+        <v>0.04490665933236405</v>
+      </c>
+      <c r="F183">
+        <v>0.001339577410014565</v>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>&lt; 0.05</t>
         </is>
       </c>
     </row>
@@ -4766,18 +5681,23 @@
           <t>History</t>
         </is>
       </c>
-      <c r="C184">
-        <v>0.00115269422942078</v>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>glaze_osc_full</t>
+        </is>
       </c>
       <c r="D184">
-        <v>0.0330606786884431</v>
+        <v>-0.005199681834371546</v>
       </c>
       <c r="E184">
-        <v>0.00141873964172162</v>
-      </c>
-      <c r="F184" t="inlineStr">
-        <is>
-          <t>&gt; 0.05</t>
+        <v>0.0438135009734039</v>
+      </c>
+      <c r="F184">
+        <v>0.001306968209842415</v>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>&lt; 0.05</t>
         </is>
       </c>
     </row>
@@ -4790,18 +5710,23 @@
           <t>History</t>
         </is>
       </c>
-      <c r="C185">
-        <v>0.000880738164059683</v>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>glaze_osc_full</t>
+        </is>
       </c>
       <c r="D185">
-        <v>0.0331851464488679</v>
+        <v>-0.004852294350732491</v>
       </c>
       <c r="E185">
-        <v>0.00142442241737434</v>
-      </c>
-      <c r="F185" t="inlineStr">
-        <is>
-          <t>&gt; 0.05</t>
+        <v>0.0433855736190923</v>
+      </c>
+      <c r="F185">
+        <v>0.001294203024778872</v>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>&lt; 0.05</t>
         </is>
       </c>
     </row>
@@ -4814,18 +5739,23 @@
           <t>History</t>
         </is>
       </c>
-      <c r="C186">
-        <v>0.00053382625252718</v>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>glaze_osc_full</t>
+        </is>
       </c>
       <c r="D186">
-        <v>0.0338393142075547</v>
+        <v>-0.004759840271202454</v>
       </c>
       <c r="E186">
-        <v>0.00145250158290199</v>
-      </c>
-      <c r="F186" t="inlineStr">
-        <is>
-          <t>&gt; 0.05</t>
+        <v>0.04383643467578113</v>
+      </c>
+      <c r="F186">
+        <v>0.001307652328191214</v>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>&lt; 0.05</t>
         </is>
       </c>
     </row>
@@ -4838,18 +5768,23 @@
           <t>History</t>
         </is>
       </c>
-      <c r="C187">
-        <v>0.00108966063133167</v>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>glaze_osc_full</t>
+        </is>
       </c>
       <c r="D187">
-        <v>0.0331769021951353</v>
+        <v>-0.004932230366045172</v>
       </c>
       <c r="E187">
-        <v>0.00142441017134323</v>
-      </c>
-      <c r="F187" t="inlineStr">
-        <is>
-          <t>&gt; 0.05</t>
+        <v>0.04378450309217338</v>
+      </c>
+      <c r="F187">
+        <v>0.001306103195450069</v>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>&lt; 0.05</t>
         </is>
       </c>
     </row>
@@ -4862,18 +5797,23 @@
           <t>History</t>
         </is>
       </c>
-      <c r="C188">
-        <v>0.0011515686644228</v>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>glaze_osc_full</t>
+        </is>
       </c>
       <c r="D188">
-        <v>0.0337812979609004</v>
+        <v>-0.003886220935792058</v>
       </c>
       <c r="E188">
-        <v>0.00145035917258539</v>
-      </c>
-      <c r="F188" t="inlineStr">
-        <is>
-          <t>&gt; 0.05</t>
+        <v>0.04299069346281891</v>
+      </c>
+      <c r="F188">
+        <v>0.001282423646288661</v>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>&lt; 0.05</t>
         </is>
       </c>
     </row>
@@ -4886,18 +5826,23 @@
           <t>History</t>
         </is>
       </c>
-      <c r="C189">
-        <v>0.00129277101132737</v>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>glaze_osc_full</t>
+        </is>
       </c>
       <c r="D189">
-        <v>0.0336712938426409</v>
+        <v>-0.00426008526410982</v>
       </c>
       <c r="E189">
-        <v>0.00144633046193483</v>
-      </c>
-      <c r="F189" t="inlineStr">
-        <is>
-          <t>&gt; 0.05</t>
+        <v>0.04290612687452734</v>
+      </c>
+      <c r="F189">
+        <v>0.001279901002809908</v>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>&lt; 0.05</t>
         </is>
       </c>
     </row>
@@ -4910,18 +5855,23 @@
           <t>History</t>
         </is>
       </c>
-      <c r="C190">
-        <v>-0.000902789809912508</v>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>glaze_osc_full</t>
+        </is>
       </c>
       <c r="D190">
-        <v>0.034201240429857</v>
+        <v>-0.00332046676258249</v>
       </c>
       <c r="E190">
-        <v>0.00146944693886327</v>
-      </c>
-      <c r="F190" t="inlineStr">
-        <is>
-          <t>&gt; 0.05</t>
+        <v>0.04303411319539217</v>
+      </c>
+      <c r="F190">
+        <v>0.00128371886828399</v>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>&lt; 0.05</t>
         </is>
       </c>
     </row>
@@ -4934,18 +5884,23 @@
           <t>History</t>
         </is>
       </c>
-      <c r="C191">
-        <v>0.00029381003056342</v>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>glaze_osc_full</t>
+        </is>
       </c>
       <c r="D191">
-        <v>0.0334992704418195</v>
+        <v>-0.002469711149436823</v>
       </c>
       <c r="E191">
-        <v>0.00143928699036049</v>
-      </c>
-      <c r="F191" t="inlineStr">
-        <is>
-          <t>&gt; 0.05</t>
+        <v>0.04221763965583223</v>
+      </c>
+      <c r="F191">
+        <v>0.001259363248744933</v>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>&lt; 0.05</t>
         </is>
       </c>
     </row>
@@ -4958,18 +5913,23 @@
           <t>History</t>
         </is>
       </c>
-      <c r="C192">
-        <v>-0.000304737364377624</v>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>glaze_osc_full</t>
+        </is>
       </c>
       <c r="D192">
-        <v>0.0332615256417018</v>
+        <v>-0.001377259595197198</v>
       </c>
       <c r="E192">
-        <v>0.00142941583578954</v>
-      </c>
-      <c r="F192" t="inlineStr">
-        <is>
-          <t>&gt; 0.05</t>
+        <v>0.04175025190028754</v>
+      </c>
+      <c r="F192">
+        <v>0.001245420949576982</v>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>&lt; 0.05</t>
         </is>
       </c>
     </row>
@@ -4982,16 +5942,21 @@
           <t>History</t>
         </is>
       </c>
-      <c r="C193">
-        <v>0.000776232917948141</v>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>glaze_osc_full</t>
+        </is>
       </c>
       <c r="D193">
-        <v>0.0337629172714288</v>
+        <v>-0.001111621056268373</v>
       </c>
       <c r="E193">
-        <v>0.00145096316777859</v>
-      </c>
-      <c r="F193" t="inlineStr">
+        <v>0.04241573921736657</v>
+      </c>
+      <c r="F193">
+        <v>0.001265272610552524</v>
+      </c>
+      <c r="G193" t="inlineStr">
         <is>
           <t>&gt; 0.05</t>
         </is>
@@ -5006,18 +5971,23 @@
           <t>History</t>
         </is>
       </c>
-      <c r="C194">
-        <v>-0.000265617358464429</v>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>glaze_osc_full</t>
+        </is>
       </c>
       <c r="D194">
-        <v>0.0330575085474708</v>
+        <v>-0.001517517853884192</v>
       </c>
       <c r="E194">
-        <v>0.00142098981545597</v>
-      </c>
-      <c r="F194" t="inlineStr">
-        <is>
-          <t>&gt; 0.05</t>
+        <v>0.04133489386747797</v>
+      </c>
+      <c r="F194">
+        <v>0.001233030710666051</v>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>&lt; 0.05</t>
         </is>
       </c>
     </row>
@@ -5030,18 +6000,23 @@
           <t>History</t>
         </is>
       </c>
-      <c r="C195">
-        <v>0.000520525643804167</v>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>glaze_osc_full</t>
+        </is>
       </c>
       <c r="D195">
-        <v>0.0334870710452036</v>
+        <v>-0.001958520564525962</v>
       </c>
       <c r="E195">
-        <v>0.00143945472588633</v>
-      </c>
-      <c r="F195" t="inlineStr">
-        <is>
-          <t>&gt; 0.05</t>
+        <v>0.04238307049811808</v>
+      </c>
+      <c r="F195">
+        <v>0.001264298094100621</v>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>&lt; 0.05</t>
         </is>
       </c>
     </row>
@@ -5054,18 +6029,23 @@
           <t>History</t>
         </is>
       </c>
-      <c r="C196">
-        <v>8.96622979952818e-06</v>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>glaze_osc_full</t>
+        </is>
       </c>
       <c r="D196">
-        <v>0.0342373515245052</v>
+        <v>-0.002145187872693768</v>
       </c>
       <c r="E196">
-        <v>0.00147205989638161</v>
-      </c>
-      <c r="F196" t="inlineStr">
-        <is>
-          <t>&gt; 0.05</t>
+        <v>0.04167739402709666</v>
+      </c>
+      <c r="F196">
+        <v>0.001243247580136475</v>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>&lt; 0.05</t>
         </is>
       </c>
     </row>
@@ -5078,16 +6058,21 @@
           <t>History</t>
         </is>
       </c>
-      <c r="C197">
-        <v>0.000127343287180305</v>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>glaze_osc_full</t>
+        </is>
       </c>
       <c r="D197">
-        <v>0.0334157905955262</v>
+        <v>-0.0003115320011924037</v>
       </c>
       <c r="E197">
-        <v>0.00143673628511692</v>
-      </c>
-      <c r="F197" t="inlineStr">
+        <v>0.04228521338468332</v>
+      </c>
+      <c r="F197">
+        <v>0.001261378990775739</v>
+      </c>
+      <c r="G197" t="inlineStr">
         <is>
           <t>&gt; 0.05</t>
         </is>
